--- a/resources/samplesheet.xlsx
+++ b/resources/samplesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickminor/Library/Mobile Documents/com~apple~CloudDocs/Documents/RESEARCH/nrm_experiments/0023/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7186F9-B2A9-714A-853D-F9127CA2272C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA5E4D-6C75-514B-8297-5F2DB55B1F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22840" windowHeight="24000" xr2:uid="{80EBFAAF-AC3F-D440-9115-D672FB0F73CF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{80EBFAAF-AC3F-D440-9115-D672FB0F73CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="565">
   <si>
     <t>Individual</t>
   </si>
@@ -1726,6 +1726,9 @@
   </si>
   <si>
     <t>lazuli</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1837,14 +1840,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2159,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114F458-CEB2-4B40-A79F-421526B6D811}">
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2170,28 +2169,28 @@
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="4"/>
     <col min="3" max="5" width="10.83203125" style="5"/>
-    <col min="6" max="7" width="25.5" style="18" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6" style="4" customWidth="1"/>
-    <col min="10" max="11" width="6.1640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="32.1640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="4" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="33.6640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="46.6640625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="28.33203125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="32.6640625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="31.6640625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="27.33203125" style="4" customWidth="1"/>
+    <col min="6" max="8" width="25.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6" style="4" customWidth="1"/>
+    <col min="11" max="12" width="6.1640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="32.1640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="4" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="33.6640625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="46.6640625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="28.33203125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="32.6640625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="31.6640625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="27.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>476</v>
       </c>
@@ -2207,71 +2206,74 @@
       <c r="E1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>513</v>
       </c>
@@ -2287,66 +2289,69 @@
       <c r="E2" s="5">
         <v>2021</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" t="s">
         <v>562</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="N2" s="12">
+      <c r="O2">
         <v>42.669722</v>
       </c>
-      <c r="O2" s="12">
+      <c r="P2">
         <v>99.769166999999996</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>661.41600000000005</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="R2" s="12">
         <v>44348</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <v>1407</v>
       </c>
-      <c r="S2" s="15">
+      <c r="T2" s="14">
         <v>44350</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="V2" s="4" t="s">
+      <c r="U2"/>
+      <c r="W2" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="W2" s="12">
+      <c r="X2">
         <v>0</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>520</v>
       </c>
@@ -2362,66 +2367,69 @@
       <c r="E3" s="5">
         <v>2021</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" t="s">
         <v>562</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4">
         <v>16.5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="N3" s="12">
+      <c r="O3">
         <v>42.892778</v>
       </c>
-      <c r="O3" s="12">
+      <c r="P3">
         <v>100.31222200000001</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>710.18399999999997</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="R3" s="12">
         <v>44355</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>655</v>
       </c>
-      <c r="S3" s="16">
+      <c r="T3" s="15">
         <v>44357</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="V3" s="4" t="s">
+      <c r="U3"/>
+      <c r="W3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>546</v>
       </c>
@@ -2437,64 +2445,67 @@
       <c r="E4" s="5">
         <v>2021</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" t="s">
         <v>563</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="N4" s="12">
+      <c r="O4">
         <v>42.407221999999997</v>
       </c>
-      <c r="O4" s="12">
+      <c r="P4">
         <v>105.62472200000001</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>2020.8240000000001</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="R4" s="12">
         <v>44371</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>745</v>
       </c>
-      <c r="S4" s="13">
+      <c r="T4" s="12">
         <v>44371</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="4" t="s">
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W4" s="12">
+      <c r="X4">
         <v>1</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>509</v>
       </c>
@@ -2510,64 +2521,67 @@
       <c r="E5" s="5">
         <v>2021</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" t="s">
         <v>562</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
         <v>15</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="N5" s="12">
+      <c r="O5">
         <v>42.755833000000003</v>
       </c>
-      <c r="O5" s="12">
+      <c r="P5">
         <v>98.439443999999995</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>435.86399999999998</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="R5" s="13">
         <v>44344</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>1205</v>
       </c>
-      <c r="S5" s="14">
+      <c r="T5" s="13">
         <v>44345</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="4" t="s">
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="12">
+      <c r="X5">
         <v>0</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>508</v>
       </c>
@@ -2583,63 +2597,66 @@
       <c r="E6" s="5">
         <v>2021</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" t="s">
         <v>562</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
         <v>15</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="N6" s="12">
+      <c r="O6">
         <v>42.748610999999997</v>
       </c>
-      <c r="O6" s="12">
+      <c r="P6">
         <v>98.002778000000006</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>377.952</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="R6" s="12">
         <v>44343</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>825</v>
       </c>
-      <c r="S6" s="14">
+      <c r="T6" s="13">
         <v>44345</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="V6" s="4" t="s">
+      <c r="U6"/>
+      <c r="W6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="12">
+      <c r="X6">
         <v>0</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>549</v>
       </c>
@@ -2655,62 +2672,65 @@
       <c r="E7" s="5">
         <v>2021</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" t="s">
         <v>563</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
         <v>14</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>42.694167</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>103.566389</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <v>1243.5840000000001</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>44376</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <v>805</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>44377</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Z7" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>518</v>
       </c>
@@ -2726,62 +2746,65 @@
       <c r="E8" s="5">
         <v>2021</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" t="s">
         <v>562</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
         <v>16</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>42.892778</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>100.31222200000001</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>710.18399999999997</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <v>44355</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>625</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>44357</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>7.1428570999999996E-2</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -2797,62 +2820,65 @@
       <c r="E9" s="5">
         <v>2021</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
         <v>15</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>42.665832999999999</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>99.777777999999998</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>691.89599999999996</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <v>44348</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>825</v>
       </c>
-      <c r="S9" s="7">
+      <c r="T9" s="7">
         <v>44350</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.5</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>540</v>
       </c>
@@ -2868,62 +2894,65 @@
       <c r="E10" s="5">
         <v>2021</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" t="s">
         <v>330</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4">
         <v>14</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>42.694443999999997</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>103.565</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <v>1240.5360000000001</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>44368</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <v>1235</v>
       </c>
-      <c r="S10" s="6">
+      <c r="T10" s="6">
         <v>44369</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.14285714299999999</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>511</v>
       </c>
@@ -2939,62 +2968,65 @@
       <c r="E11" s="5">
         <v>2021</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" t="s">
         <v>562</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
         <v>15</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>42.666944000000001</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>99.772778000000002</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>673.60799999999995</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="6">
         <v>44348</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <v>1115</v>
       </c>
-      <c r="S11" s="7">
+      <c r="T11" s="7">
         <v>44350</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="W11" s="12">
+      <c r="X11">
         <v>0</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Z11" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>505</v>
       </c>
@@ -3010,62 +3042,65 @@
       <c r="E12" s="5">
         <v>2021</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" t="s">
         <v>562</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
         <v>15</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>42.760556000000001</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>97.103333000000006</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>377.952</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="R12" s="6">
         <v>44342</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>925</v>
       </c>
-      <c r="S12" s="7">
+      <c r="T12" s="7">
         <v>44345</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W12" s="12">
+      <c r="X12">
         <v>0</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="Y12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="Z12" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>557</v>
       </c>
@@ -3081,65 +3116,68 @@
       <c r="E13" s="5">
         <v>2021</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" t="s">
         <v>562</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
         <v>16</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>42.782221999999997</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>100.04861099999999</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>652.27200000000005</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="R13" s="6">
         <v>44349</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>1200</v>
       </c>
-      <c r="S13" s="7">
+      <c r="T13" s="7">
         <v>44350</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W13" s="12">
+      <c r="X13">
         <v>0</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Y13" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="Z13" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>517</v>
       </c>
@@ -3155,62 +3193,65 @@
       <c r="E14" s="5">
         <v>2021</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" t="s">
         <v>562</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14" s="4">
         <v>15</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>42.785556</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>100.930556</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>789.43200000000002</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="R14" s="6">
         <v>44353</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>700</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10">
         <v>44357</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W14" s="12">
+      <c r="X14">
         <v>0</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="Y14" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Z14" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>551</v>
       </c>
@@ -3226,65 +3267,68 @@
       <c r="E15" s="5">
         <v>2021</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" t="s">
         <v>330</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>21</v>
+      <c r="H15">
+        <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>42.651389000000002</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>103.483056</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>1158.24</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="R15" s="6">
         <v>44377</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <v>800</v>
       </c>
-      <c r="S15" s="6">
+      <c r="T15" s="6">
         <v>44377</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0.71428571399999996</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>519</v>
       </c>
@@ -3300,62 +3344,65 @@
       <c r="E16" s="5">
         <v>2021</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" t="s">
         <v>562</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16" s="4">
         <v>15</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>42.892778</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>100.31222200000001</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>710.18399999999997</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="R16" s="6">
         <v>44355</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>630</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10">
         <v>44357</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="Y16" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="Z16" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>521</v>
       </c>
@@ -3371,65 +3418,68 @@
       <c r="E17" s="5">
         <v>2021</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" t="s">
         <v>562</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4">
         <v>14</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>42.889135000000003</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>100.314435</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>701.04</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="R17" s="6">
         <v>44355</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>745</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10">
         <v>44357</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="Y17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="Z17" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="Z17" s="4" t="s">
+      <c r="AA17" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>525</v>
       </c>
@@ -3445,62 +3495,65 @@
       <c r="E18" s="5">
         <v>2021</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" t="s">
         <v>562</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4">
         <v>17</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>42.693888999999999</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>103.56527800000001</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>1243.5840000000001</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R18" s="6">
         <v>44360</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>1420</v>
       </c>
-      <c r="S18" s="6">
+      <c r="T18" s="6">
         <v>44362</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="W18" s="12">
+      <c r="X18">
         <v>0</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="Y18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="Z18" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>506</v>
       </c>
@@ -3516,65 +3569,68 @@
       <c r="E19" s="5">
         <v>2021</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" t="s">
         <v>562</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
         <v>15</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>42.760832999999998</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>97.103611000000001</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>365.76</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="R19" s="6">
         <v>44342</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>1025</v>
       </c>
-      <c r="S19" s="7">
+      <c r="T19" s="7">
         <v>44345</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="W19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W19" s="12">
+      <c r="X19">
         <v>0</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="Y19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y19" s="4" t="s">
+      <c r="Z19" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="Z19" s="4" t="s">
+      <c r="AA19" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>536</v>
       </c>
@@ -3590,68 +3646,71 @@
       <c r="E20" s="5">
         <v>2021</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" t="s">
         <v>330</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4">
         <v>12.5</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>42.660832999999997</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>103.459444</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>1149.096</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="R20" s="6">
         <v>44368</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <v>642</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T20" s="7">
+      <c r="T20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="7">
         <v>44368</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="V20" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.85714285700000004</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="Y20" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="Y20" s="4" t="s">
+      <c r="Z20" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>550</v>
       </c>
@@ -3667,62 +3726,65 @@
       <c r="E21" s="5">
         <v>2021</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" t="s">
         <v>330</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4">
         <v>14.5</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>42.65</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>103.50027799999999</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <v>1173.48</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="R21" s="6">
         <v>44377</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <v>605</v>
       </c>
-      <c r="S21" s="10">
+      <c r="T21" s="10">
         <v>44377</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.35714285699999998</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="Y21" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="Y21" s="4" t="s">
+      <c r="Z21" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>516</v>
       </c>
@@ -3738,62 +3800,65 @@
       <c r="E22" s="5">
         <v>2021</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" t="s">
         <v>562</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
         <v>14</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>42.781111000000003</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>100.05249999999999</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>652.27200000000005</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="R22" s="6">
         <v>44349</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <v>1450</v>
       </c>
-      <c r="S22" s="7">
+      <c r="T22" s="7">
         <v>44350</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="W22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W22" s="12">
+      <c r="X22">
         <v>0</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="Y22" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="Z22" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>539</v>
       </c>
@@ -3809,65 +3874,68 @@
       <c r="E23" s="5">
         <v>2021</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" t="s">
         <v>563</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4">
         <v>15</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>42.694721999999999</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <v>103.563056</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <v>1243.5840000000001</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="R23" s="6">
         <v>44368</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <v>1105</v>
       </c>
-      <c r="S23" s="6">
+      <c r="T23" s="6">
         <v>44369</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="W23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.928571429</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="Y23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="Z23" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="Z23" s="4" t="s">
+      <c r="AA23" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>515</v>
       </c>
@@ -3883,62 +3951,65 @@
       <c r="E24" s="5">
         <v>2021</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" t="s">
         <v>562</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4">
         <v>16</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>42.783889000000002</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>100.039722</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <v>658.36800000000005</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="R24" s="6">
         <v>44349</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <v>1110</v>
       </c>
-      <c r="S24" s="7">
+      <c r="T24" s="7">
         <v>44350</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="W24" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="W24" s="12">
+      <c r="X24">
         <v>0</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="Y24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y24" s="4" t="s">
+      <c r="Z24" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>504</v>
       </c>
@@ -3954,62 +4025,65 @@
       <c r="E25" s="5">
         <v>2021</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" t="s">
         <v>562</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
         <v>15</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>42.76</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <v>97.103611000000001</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>362.71199999999999</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="R25" s="6">
         <v>44342</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <v>720</v>
       </c>
-      <c r="S25" s="7">
+      <c r="T25" s="7">
         <v>44345</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="W25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W25" s="12">
+      <c r="X25">
         <v>0</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="Y25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y25" s="4" t="s">
+      <c r="Z25" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>526</v>
       </c>
@@ -4025,62 +4099,65 @@
       <c r="E26" s="5">
         <v>2021</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" t="s">
         <v>562</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4">
         <v>16</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>42.693055999999999</v>
       </c>
-      <c r="O26" s="4">
+      <c r="P26" s="4">
         <v>103.566667</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q26" s="4">
         <v>1243.5840000000001</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="R26" s="6">
         <v>44360</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <v>1520</v>
       </c>
-      <c r="S26" s="6">
+      <c r="T26" s="6">
         <v>44362</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="W26" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>7.1428570999999996E-2</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="Y26" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y26" s="4" t="s">
+      <c r="Z26" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>553</v>
       </c>
@@ -4096,62 +4173,65 @@
       <c r="E27" s="5">
         <v>2021</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" t="s">
         <v>563</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27" s="4">
         <v>13.5</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>42.765278000000002</v>
       </c>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <v>103.928056</v>
       </c>
-      <c r="P27" s="4">
+      <c r="Q27" s="4">
         <v>1368.5519999999999</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="R27" s="6">
         <v>44362</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <v>950</v>
       </c>
-      <c r="S27" s="6">
+      <c r="T27" s="6">
         <v>44362</v>
       </c>
-      <c r="V27" s="4" t="s">
+      <c r="W27" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="W27" s="12">
+      <c r="X27">
         <v>1</v>
       </c>
-      <c r="X27" s="4" t="s">
+      <c r="Y27" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y27" s="4" t="s">
+      <c r="Z27" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>530</v>
       </c>
@@ -4167,62 +4247,65 @@
       <c r="E28" s="5">
         <v>2021</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" t="s">
         <v>563</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28" s="4">
         <v>14</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="L28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>41.776111</v>
       </c>
-      <c r="O28" s="4">
+      <c r="P28" s="4">
         <v>105.356944</v>
       </c>
-      <c r="P28" s="4">
+      <c r="Q28" s="4">
         <v>1850.136</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="R28" s="6">
         <v>44364</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>704</v>
       </c>
-      <c r="S28" s="10">
+      <c r="T28" s="10">
         <v>44364</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="W28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W28" s="12">
+      <c r="X28">
         <v>1</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="Y28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y28" s="4" t="s">
+      <c r="Z28" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>507</v>
       </c>
@@ -4238,62 +4321,65 @@
       <c r="E29" s="5">
         <v>2021</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" t="s">
         <v>562</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
         <v>15</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>42.758611000000002</v>
       </c>
-      <c r="O29" s="4">
+      <c r="P29" s="4">
         <v>97.103333000000006</v>
       </c>
-      <c r="P29" s="4">
+      <c r="Q29" s="4">
         <v>368.80799999999999</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="R29" s="6">
         <v>44342</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <v>1245</v>
       </c>
-      <c r="S29" s="7">
+      <c r="T29" s="7">
         <v>44345</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="W29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="12">
+      <c r="X29">
         <v>0</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="Y29" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y29" s="4" t="s">
+      <c r="Z29" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>532</v>
       </c>
@@ -4309,62 +4395,65 @@
       <c r="E30" s="5">
         <v>2021</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" t="s">
         <v>563</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4">
         <v>13</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="L30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="N30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>41.777500000000003</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>105.358611</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>1856.232</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="R30" s="6">
         <v>44364</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>802</v>
       </c>
-      <c r="S30" s="10">
+      <c r="T30" s="10">
         <v>44364</v>
       </c>
-      <c r="V30" s="4" t="s">
+      <c r="W30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W30" s="12">
+      <c r="X30">
         <v>1</v>
       </c>
-      <c r="X30" s="4" t="s">
+      <c r="Y30" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y30" s="4" t="s">
+      <c r="Z30" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -4380,65 +4469,68 @@
       <c r="E31" s="5">
         <v>2021</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" t="s">
         <v>330</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4">
         <v>14.5</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>42.659722000000002</v>
       </c>
-      <c r="O31" s="4">
+      <c r="P31" s="4">
         <v>103.46083299999999</v>
       </c>
-      <c r="P31" s="4">
+      <c r="Q31" s="4">
         <v>1149.096</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="R31" s="6">
         <v>44368</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <v>745</v>
       </c>
-      <c r="S31" s="6">
+      <c r="T31" s="6">
         <v>44369</v>
       </c>
-      <c r="V31" s="4" t="s">
+      <c r="W31" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.85714285700000004</v>
       </c>
-      <c r="X31" s="4" t="s">
+      <c r="Y31" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="Y31" s="4" t="s">
+      <c r="Z31" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="Z31" s="4" t="s">
+      <c r="AA31" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>528</v>
       </c>
@@ -4454,65 +4546,68 @@
       <c r="E32" s="5">
         <v>2021</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" t="s">
         <v>562</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4">
         <v>13.5</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="N32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>42.660130000000002</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="4">
         <v>103.46369</v>
       </c>
-      <c r="P32" s="4">
+      <c r="Q32" s="4">
         <v>1157</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="R32" s="6">
         <v>44361</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <v>930</v>
       </c>
-      <c r="S32" s="6">
+      <c r="T32" s="6">
         <v>44362</v>
       </c>
-      <c r="V32" s="4" t="s">
+      <c r="W32" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="W32" s="12">
+      <c r="X32">
         <v>0</v>
       </c>
-      <c r="X32" s="4" t="s">
+      <c r="Y32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y32" s="4" t="s">
+      <c r="Z32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Z32" s="4" t="s">
+      <c r="AA32" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>522</v>
       </c>
@@ -4528,62 +4623,65 @@
       <c r="E33" s="5">
         <v>2021</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" t="s">
         <v>562</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33" s="4">
         <v>15</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>42.712499999999999</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <v>103.011111</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <v>1161.288</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="R33" s="6">
         <v>44357</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>635</v>
       </c>
-      <c r="S33" s="6">
+      <c r="T33" s="6">
         <v>44357</v>
       </c>
-      <c r="V33" s="4" t="s">
+      <c r="W33" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="W33" s="4">
+      <c r="X33" s="4">
         <v>7.1428570999999996E-2</v>
       </c>
-      <c r="X33" s="4" t="s">
+      <c r="Y33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y33" s="4" t="s">
+      <c r="Z33" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>524</v>
       </c>
@@ -4599,62 +4697,65 @@
       <c r="E34" s="5">
         <v>2021</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" t="s">
         <v>330</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4">
         <v>15</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="L34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>42.696111000000002</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>103.56527800000001</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <v>1246.6320000000001</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="R34" s="6">
         <v>44360</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>1245</v>
       </c>
-      <c r="S34" s="6">
+      <c r="T34" s="6">
         <v>44362</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="W34" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.428571429</v>
       </c>
-      <c r="X34" s="4" t="s">
+      <c r="Y34" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="Y34" s="4" t="s">
+      <c r="Z34" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>514</v>
       </c>
@@ -4670,62 +4771,65 @@
       <c r="E35" s="5">
         <v>2021</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" t="s">
         <v>562</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35" s="4">
         <v>15</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>42.783889000000002</v>
       </c>
-      <c r="O35" s="4">
+      <c r="P35" s="4">
         <v>100.038611</v>
       </c>
-      <c r="P35" s="4">
+      <c r="Q35" s="4">
         <v>658.36800000000005</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="R35" s="6">
         <v>44349</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <v>1030</v>
       </c>
-      <c r="S35" s="7">
+      <c r="T35" s="7">
         <v>44350</v>
       </c>
-      <c r="V35" s="4" t="s">
+      <c r="W35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W35" s="12">
+      <c r="X35">
         <v>0</v>
       </c>
-      <c r="X35" s="4" t="s">
+      <c r="Y35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y35" s="4" t="s">
+      <c r="Z35" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>512</v>
       </c>
@@ -4741,68 +4845,71 @@
       <c r="E36" s="5">
         <v>2021</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" t="s">
         <v>562</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" s="4">
         <v>15</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="N36" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>42.669722</v>
       </c>
-      <c r="O36" s="4">
+      <c r="P36" s="4">
         <v>99.769166999999996</v>
       </c>
-      <c r="P36" s="4">
+      <c r="Q36" s="4">
         <v>661.41600000000005</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="R36" s="6">
         <v>44348</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <v>1407</v>
       </c>
-      <c r="S36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T36" s="9">
+      <c r="T36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="9">
         <v>44349</v>
       </c>
-      <c r="U36" s="4" t="s">
+      <c r="V36" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="V36" s="4" t="s">
+      <c r="W36" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="W36" s="12">
+      <c r="X36">
         <v>0</v>
       </c>
-      <c r="X36" s="4" t="s">
+      <c r="Y36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y36" s="4" t="s">
+      <c r="Z36" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>541</v>
       </c>
@@ -4818,71 +4925,74 @@
       <c r="E37" s="5">
         <v>2021</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" t="s">
         <v>330</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37" s="4">
         <v>15</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="L37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>42.697499999999998</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <v>103.567222</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <v>1246.6320000000001</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="R37" s="6">
         <v>44368</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>1625</v>
       </c>
-      <c r="S37" s="6">
+      <c r="T37" s="6">
         <v>44369</v>
       </c>
-      <c r="T37" s="7">
+      <c r="U37" s="7">
         <v>44370</v>
       </c>
-      <c r="U37" s="4" t="s">
+      <c r="V37" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="V37" s="4" t="s">
+      <c r="W37" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.64285714299999996</v>
       </c>
-      <c r="X37" s="4" t="s">
+      <c r="Y37" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="Y37" s="4" t="s">
+      <c r="Z37" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z37" s="4" t="s">
+      <c r="AA37" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>535</v>
       </c>
@@ -4898,62 +5008,65 @@
       <c r="E38" s="5">
         <v>2021</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" t="s">
         <v>563</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38" s="4">
         <v>14</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="L38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="N38" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <v>42.661667000000001</v>
       </c>
-      <c r="O38" s="4">
+      <c r="P38" s="4">
         <v>103.45694399999999</v>
       </c>
-      <c r="P38" s="4">
+      <c r="Q38" s="4">
         <v>1149.096</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="R38" s="6">
         <v>44368</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <v>605</v>
       </c>
-      <c r="S38" s="6">
+      <c r="T38" s="6">
         <v>44369</v>
       </c>
-      <c r="V38" s="4" t="s">
+      <c r="W38" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>1</v>
       </c>
-      <c r="X38" s="4" t="s">
+      <c r="Y38" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y38" s="4" t="s">
+      <c r="Z38" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>533</v>
       </c>
@@ -4969,62 +5082,65 @@
       <c r="E39" s="5">
         <v>2021</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" t="s">
         <v>563</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39">
+        <v>12</v>
+      </c>
+      <c r="I39" s="4">
         <v>13</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="L39" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="M39" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="N39" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N39" s="4">
+      <c r="O39" s="4">
         <v>41.778333000000003</v>
       </c>
-      <c r="O39" s="4">
+      <c r="P39" s="4">
         <v>105.3625</v>
       </c>
-      <c r="P39" s="4">
+      <c r="Q39" s="4">
         <v>1865.376</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="R39" s="6">
         <v>44364</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <v>1035</v>
       </c>
-      <c r="S39" s="7">
+      <c r="T39" s="7">
         <v>44364</v>
       </c>
-      <c r="V39" s="4" t="s">
+      <c r="W39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W39" s="4">
+      <c r="X39" s="4">
         <v>1</v>
       </c>
-      <c r="X39" s="4" t="s">
+      <c r="Y39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y39" s="4" t="s">
+      <c r="Z39" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>527</v>
       </c>
@@ -5040,62 +5156,65 @@
       <c r="E40" s="5">
         <v>2021</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" t="s">
         <v>563</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40" s="4">
         <v>14</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N40" s="4">
+      <c r="O40" s="4">
         <v>42.660130000000002</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <v>103.46369</v>
       </c>
-      <c r="P40" s="4">
+      <c r="Q40" s="4">
         <v>1157</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="R40" s="6">
         <v>44361</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <v>555</v>
       </c>
-      <c r="S40" s="6">
+      <c r="T40" s="6">
         <v>44362</v>
       </c>
-      <c r="V40" s="4" t="s">
+      <c r="W40" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="W40" s="4">
+      <c r="X40" s="4">
         <v>1</v>
       </c>
-      <c r="X40" s="4" t="s">
+      <c r="Y40" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y40" s="4" t="s">
+      <c r="Z40" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>538</v>
       </c>
@@ -5111,62 +5230,65 @@
       <c r="E41" s="5">
         <v>2021</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" t="s">
         <v>330</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41" s="4">
         <v>13</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>42.662778000000003</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>103.453056</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <v>1146.048</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="R41" s="6">
         <v>44368</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <v>900</v>
       </c>
-      <c r="S41" s="6">
+      <c r="T41" s="6">
         <v>44369</v>
       </c>
-      <c r="V41" s="4" t="s">
+      <c r="W41" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W41" s="4">
+      <c r="X41" s="4">
         <v>0.64285714299999996</v>
       </c>
-      <c r="X41" s="4" t="s">
+      <c r="Y41" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="Y41" s="4" t="s">
+      <c r="Z41" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -5182,62 +5304,65 @@
       <c r="E42" s="5">
         <v>2021</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" t="s">
         <v>563</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4">
         <v>17</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="L42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="N42" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N42" s="4">
+      <c r="O42" s="4">
         <v>42.696666999999998</v>
       </c>
-      <c r="O42" s="4">
+      <c r="P42" s="4">
         <v>103.566389</v>
       </c>
-      <c r="P42" s="4">
+      <c r="Q42" s="4">
         <v>1246.6320000000001</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="R42" s="6">
         <v>44360</v>
       </c>
-      <c r="R42" s="4">
+      <c r="S42" s="4">
         <v>1150</v>
       </c>
-      <c r="S42" s="6">
+      <c r="T42" s="6">
         <v>44362</v>
       </c>
-      <c r="V42" s="4" t="s">
+      <c r="W42" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="W42" s="4">
+      <c r="X42" s="4">
         <v>1</v>
       </c>
-      <c r="X42" s="4" t="s">
+      <c r="Y42" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y42" s="4" t="s">
+      <c r="Z42" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>529</v>
       </c>
@@ -5253,62 +5378,65 @@
       <c r="E43" s="5">
         <v>2021</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" t="s">
         <v>563</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43">
+        <v>12</v>
+      </c>
+      <c r="I43" s="4">
         <v>13.5</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="L43" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="M43" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="N43" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N43" s="4">
+      <c r="O43" s="4">
         <v>41.775278</v>
       </c>
-      <c r="O43" s="4">
+      <c r="P43" s="4">
         <v>105.35638899999999</v>
       </c>
-      <c r="P43" s="4">
+      <c r="Q43" s="4">
         <v>1844.04</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="R43" s="6">
         <v>44364</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <v>615</v>
       </c>
-      <c r="S43" s="10">
+      <c r="T43" s="10">
         <v>44364</v>
       </c>
-      <c r="V43" s="4" t="s">
+      <c r="W43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W43" s="4">
+      <c r="X43" s="4">
         <v>1</v>
       </c>
-      <c r="X43" s="4" t="s">
+      <c r="Y43" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y43" s="4" t="s">
+      <c r="Z43" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>531</v>
       </c>
@@ -5324,62 +5452,65 @@
       <c r="E44" s="5">
         <v>2021</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" t="s">
         <v>563</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44">
+        <v>12</v>
+      </c>
+      <c r="I44" s="4">
         <v>13</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="L44" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="N44" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <v>41.776667000000003</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <v>105.356944</v>
       </c>
-      <c r="P44" s="4">
+      <c r="Q44" s="4">
         <v>1853.184</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="R44" s="6">
         <v>44364</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <v>735</v>
       </c>
-      <c r="S44" s="10">
+      <c r="T44" s="10">
         <v>44364</v>
       </c>
-      <c r="V44" s="4" t="s">
+      <c r="W44" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W44" s="4">
+      <c r="X44" s="4">
         <v>1</v>
       </c>
-      <c r="X44" s="4" t="s">
+      <c r="Y44" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y44" s="4" t="s">
+      <c r="Z44" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>542</v>
       </c>
@@ -5395,62 +5526,65 @@
       <c r="E45" s="5">
         <v>2021</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" t="s">
         <v>563</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45">
+        <v>13</v>
+      </c>
+      <c r="I45" s="4">
         <v>15</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>42.222222000000002</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <v>105.36027799999999</v>
       </c>
-      <c r="P45" s="4">
+      <c r="Q45" s="4">
         <v>2142.7440000000001</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="R45" s="6">
         <v>44370</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <v>1330</v>
       </c>
-      <c r="S45" s="6">
+      <c r="T45" s="6">
         <v>44371</v>
       </c>
-      <c r="V45" s="4" t="s">
+      <c r="W45" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W45" s="4">
+      <c r="X45" s="4">
         <v>1</v>
       </c>
-      <c r="X45" s="4" t="s">
+      <c r="Y45" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y45" s="4" t="s">
+      <c r="Z45" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>543</v>
       </c>
@@ -5466,62 +5600,65 @@
       <c r="E46" s="5">
         <v>2021</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" t="s">
         <v>563</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>21</v>
+      <c r="H46">
+        <v>13</v>
       </c>
       <c r="I46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="L46" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="M46" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="N46" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="N46" s="4">
+      <c r="O46" s="4">
         <v>42.222777999999998</v>
       </c>
-      <c r="O46" s="4">
+      <c r="P46" s="4">
         <v>105.361667</v>
       </c>
-      <c r="P46" s="4">
+      <c r="Q46" s="4">
         <v>2142.7440000000001</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="R46" s="6">
         <v>44370</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <v>1414</v>
       </c>
-      <c r="S46" s="6">
+      <c r="T46" s="6">
         <v>44371</v>
       </c>
-      <c r="V46" s="4" t="s">
+      <c r="W46" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W46" s="4">
+      <c r="X46" s="4">
         <v>1</v>
       </c>
-      <c r="X46" s="4" t="s">
+      <c r="Y46" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y46" s="4" t="s">
+      <c r="Z46" s="4" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>545</v>
       </c>
@@ -5537,62 +5674,65 @@
       <c r="E47" s="5">
         <v>2021</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" t="s">
         <v>563</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47">
         <v>14</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="4">
+        <v>14</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="L47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="M47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="N47" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="N47" s="4">
+      <c r="O47" s="4">
         <v>42.402500000000003</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>105.634444</v>
       </c>
-      <c r="P47" s="4">
+      <c r="Q47" s="4">
         <v>2054.3519999999999</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="R47" s="6">
         <v>44371</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <v>848</v>
       </c>
-      <c r="S47" s="6">
+      <c r="T47" s="6">
         <v>44371</v>
       </c>
-      <c r="V47" s="4" t="s">
+      <c r="W47" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W47" s="4">
+      <c r="X47" s="4">
         <v>1</v>
       </c>
-      <c r="X47" s="4" t="s">
+      <c r="Y47" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y47" s="4" t="s">
+      <c r="Z47" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>544</v>
       </c>
@@ -5608,62 +5748,65 @@
       <c r="E48" s="5">
         <v>2021</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" t="s">
         <v>563</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48" s="4">
         <v>14.5</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="L48" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="N48" s="4">
+      <c r="O48" s="4">
         <v>42.407778</v>
       </c>
-      <c r="O48" s="4">
+      <c r="P48" s="4">
         <v>105.62305600000001</v>
       </c>
-      <c r="P48" s="4">
+      <c r="Q48" s="4">
         <v>2033.0160000000001</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="R48" s="6">
         <v>44371</v>
       </c>
-      <c r="R48" s="4">
+      <c r="S48" s="4">
         <v>640</v>
       </c>
-      <c r="S48" s="6">
+      <c r="T48" s="6">
         <v>44371</v>
       </c>
-      <c r="V48" s="4" t="s">
+      <c r="W48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W48" s="4">
+      <c r="X48" s="4">
         <v>1</v>
       </c>
-      <c r="X48" s="4" t="s">
+      <c r="Y48" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y48" s="4" t="s">
+      <c r="Z48" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>534</v>
       </c>
@@ -5679,62 +5822,65 @@
       <c r="E49" s="5">
         <v>2021</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G49" t="s">
         <v>563</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49" s="4">
         <v>15.5</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="N49" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="N49" s="4">
+      <c r="O49" s="4">
         <v>42.766111000000002</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <v>103.92833299999999</v>
       </c>
-      <c r="P49" s="4">
+      <c r="Q49" s="4">
         <v>1362.4559999999999</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="R49" s="6">
         <v>44366</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <v>552</v>
       </c>
-      <c r="S49" s="6">
+      <c r="T49" s="6">
         <v>44369</v>
       </c>
-      <c r="V49" s="4" t="s">
+      <c r="W49" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="W49" s="4">
+      <c r="X49" s="4">
         <v>0.928571429</v>
       </c>
-      <c r="X49" s="4" t="s">
+      <c r="Y49" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="Y49" s="4" t="s">
+      <c r="Z49" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>548</v>
       </c>
@@ -5750,62 +5896,65 @@
       <c r="E50" s="5">
         <v>2021</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" t="s">
         <v>563</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50" s="4">
         <v>13.5</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="L50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N50" s="4">
+      <c r="O50" s="4">
         <v>42.694443999999997</v>
       </c>
-      <c r="O50" s="4">
+      <c r="P50" s="4">
         <v>103.565</v>
       </c>
-      <c r="P50" s="4">
+      <c r="Q50" s="4">
         <v>1240.5360000000001</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="R50" s="6">
         <v>44376</v>
       </c>
-      <c r="R50" s="4">
+      <c r="S50" s="4">
         <v>640</v>
       </c>
-      <c r="S50" s="10">
+      <c r="T50" s="10">
         <v>44377</v>
       </c>
-      <c r="V50" s="4" t="s">
+      <c r="W50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W50" s="11">
+      <c r="X50" s="11">
         <v>0.92857142999999998</v>
       </c>
-      <c r="X50" s="4" t="s">
+      <c r="Y50" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y50" s="4" t="s">
+      <c r="Z50" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>547</v>
       </c>
@@ -5821,62 +5970,65 @@
       <c r="E51" s="5">
         <v>2021</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" t="s">
         <v>563</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51" s="4">
         <v>14</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="L51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="M51" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="N51" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N51" s="4">
+      <c r="O51" s="4">
         <v>42.696666999999998</v>
       </c>
-      <c r="O51" s="4">
+      <c r="P51" s="4">
         <v>103.566389</v>
       </c>
-      <c r="P51" s="4">
+      <c r="Q51" s="4">
         <v>1246.6320000000001</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="R51" s="6">
         <v>44376</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <v>535</v>
       </c>
-      <c r="S51" s="10">
+      <c r="T51" s="10">
         <v>44377</v>
       </c>
-      <c r="V51" s="4" t="s">
+      <c r="W51" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W51" s="4">
+      <c r="X51" s="4">
         <v>1</v>
       </c>
-      <c r="X51" s="4" t="s">
+      <c r="Y51" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y51" s="4" t="s">
+      <c r="Z51" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>499</v>
       </c>
@@ -5892,56 +6044,59 @@
       <c r="E52" s="5">
         <v>2018</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" t="s">
         <v>563</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="H52">
+        <v>12</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="L52" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="N52" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N52" s="4">
+      <c r="O52" s="4">
         <v>41.778055999999999</v>
       </c>
-      <c r="O52" s="4">
+      <c r="P52" s="4">
         <v>-105.36499999999999</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="R52" s="6">
         <v>43315</v>
       </c>
-      <c r="S52" s="7">
+      <c r="T52" s="7">
         <v>43315</v>
       </c>
-      <c r="T52" s="7">
+      <c r="U52" s="7">
         <v>43409</v>
       </c>
-      <c r="U52" s="4" t="s">
+      <c r="V52" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V52" s="4" t="s">
+      <c r="W52" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W52" s="4">
+      <c r="X52" s="4">
         <v>1</v>
       </c>
-      <c r="X52" s="4" t="s">
+      <c r="Y52" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>502</v>
       </c>
@@ -5957,56 +6112,59 @@
       <c r="E53" s="5">
         <v>2018</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" t="s">
         <v>563</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="H53">
+        <v>12</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="L53" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="M53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="N53" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N53" s="4">
+      <c r="O53" s="4">
         <v>41.778055999999999</v>
       </c>
-      <c r="O53" s="4">
+      <c r="P53" s="4">
         <v>-105.36499999999999</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="R53" s="6">
         <v>43317</v>
       </c>
-      <c r="S53" s="7">
+      <c r="T53" s="7">
         <v>43317</v>
       </c>
-      <c r="T53" s="7">
+      <c r="U53" s="7">
         <v>43318</v>
       </c>
-      <c r="U53" s="4" t="s">
+      <c r="V53" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="V53" s="4" t="s">
+      <c r="W53" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="W53" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="X53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y53" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>500</v>
       </c>
@@ -6022,56 +6180,59 @@
       <c r="E54" s="5">
         <v>2018</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" t="s">
         <v>563</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="H54">
+        <v>12</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="L54" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="N54" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N54" s="4">
+      <c r="O54" s="4">
         <v>41.778055999999999</v>
       </c>
-      <c r="O54" s="4">
+      <c r="P54" s="4">
         <v>-105.36499999999999</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="R54" s="6">
         <v>43315</v>
       </c>
-      <c r="S54" s="7">
+      <c r="T54" s="7">
         <v>43315</v>
       </c>
-      <c r="T54" s="7">
+      <c r="U54" s="7">
         <v>43409</v>
       </c>
-      <c r="U54" s="4" t="s">
+      <c r="V54" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V54" s="4" t="s">
+      <c r="W54" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="W54" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="X54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y54" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>501</v>
       </c>
@@ -6087,56 +6248,59 @@
       <c r="E55" s="5">
         <v>2018</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" t="s">
         <v>563</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="H55">
+        <v>12</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="K55" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="L55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="M55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="N55" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N55" s="4">
+      <c r="O55" s="4">
         <v>41.778055999999999</v>
       </c>
-      <c r="O55" s="4">
+      <c r="P55" s="4">
         <v>-105.36499999999999</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="R55" s="6">
         <v>43315</v>
       </c>
-      <c r="S55" s="7">
+      <c r="T55" s="7">
         <v>43315</v>
       </c>
-      <c r="T55" s="7">
+      <c r="U55" s="7">
         <v>43316</v>
       </c>
-      <c r="U55" s="4" t="s">
+      <c r="V55" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="V55" s="4" t="s">
+      <c r="W55" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="W55" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="X55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y55" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>552</v>
       </c>
@@ -6149,56 +6313,59 @@
       <c r="E56" s="5">
         <v>2018</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G56" t="s">
         <v>563</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="H56">
+        <v>12</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="L56" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="N56" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N56" s="4">
+      <c r="O56" s="4">
         <v>41.778055999999999</v>
       </c>
-      <c r="O56" s="4">
+      <c r="P56" s="4">
         <v>-105.36499999999999</v>
       </c>
-      <c r="Q56" s="6">
+      <c r="R56" s="6">
         <v>43319</v>
       </c>
-      <c r="S56" s="7">
+      <c r="T56" s="7">
         <v>43319</v>
       </c>
-      <c r="T56" s="7">
+      <c r="U56" s="7">
         <v>43409</v>
       </c>
-      <c r="U56" s="4" t="s">
+      <c r="V56" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V56" s="4" t="s">
+      <c r="W56" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="W56" s="4">
+      <c r="X56" s="4">
         <v>1</v>
       </c>
-      <c r="X56" s="4" t="s">
+      <c r="Y56" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>477</v>
       </c>
@@ -6211,68 +6378,71 @@
       <c r="E57" s="5">
         <v>2019</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="G57" t="s">
         <v>562</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" s="4">
         <v>13.5</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="L57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="M57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="N57" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N57" s="4">
+      <c r="O57" s="4">
         <v>42.765500000000003</v>
       </c>
-      <c r="O57" s="4">
+      <c r="P57" s="4">
         <v>-98.06626</v>
       </c>
-      <c r="P57" s="4">
+      <c r="Q57" s="4">
         <v>423</v>
       </c>
-      <c r="Q57" s="6">
+      <c r="R57" s="6">
         <v>43608</v>
       </c>
-      <c r="R57" s="4">
+      <c r="S57" s="4">
         <v>745</v>
       </c>
-      <c r="S57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T57" s="7">
+      <c r="T57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U57" s="7">
         <v>43608</v>
       </c>
-      <c r="U57" s="4" t="s">
+      <c r="V57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V57" s="4" t="s">
+      <c r="W57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W57" s="4">
+      <c r="X57" s="4">
         <v>0</v>
       </c>
-      <c r="X57" s="4" t="s">
+      <c r="Y57" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="Y57" s="4" t="s">
+      <c r="Z57" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>483</v>
       </c>
@@ -6285,68 +6455,71 @@
       <c r="E58" s="5">
         <v>2019</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" t="s">
         <v>562</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58" s="4">
         <v>15.25</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="K58" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="L58" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L58" s="4" t="s">
+      <c r="M58" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="N58" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N58" s="4">
+      <c r="O58" s="4">
         <v>42.784930000000003</v>
       </c>
-      <c r="O58" s="4">
+      <c r="P58" s="4">
         <v>-100.05938</v>
       </c>
-      <c r="P58" s="4">
+      <c r="Q58" s="4">
         <v>646</v>
       </c>
-      <c r="Q58" s="6">
+      <c r="R58" s="6">
         <v>43616</v>
       </c>
-      <c r="R58" s="4">
+      <c r="S58" s="4">
         <v>845</v>
       </c>
-      <c r="S58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T58" s="7">
+      <c r="T58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U58" s="7">
         <v>43616</v>
       </c>
-      <c r="U58" s="4" t="s">
+      <c r="V58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="V58" s="4" t="s">
+      <c r="W58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W58" s="4">
+      <c r="X58" s="4">
         <v>0</v>
       </c>
-      <c r="X58" s="4" t="s">
+      <c r="Y58" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y58" s="4" t="s">
+      <c r="Z58" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>484</v>
       </c>
@@ -6359,71 +6532,74 @@
       <c r="E59" s="5">
         <v>2019</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" t="s">
         <v>562</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59" s="4">
         <v>15</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="L59" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L59" s="4" t="s">
+      <c r="M59" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="N59" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N59" s="4">
+      <c r="O59" s="4">
         <v>42.788119999999999</v>
       </c>
-      <c r="O59" s="4">
+      <c r="P59" s="4">
         <v>-100.02303000000001</v>
       </c>
-      <c r="P59" s="4">
+      <c r="Q59" s="4">
         <v>656</v>
       </c>
-      <c r="Q59" s="6">
+      <c r="R59" s="6">
         <v>43616</v>
       </c>
-      <c r="R59" s="4">
+      <c r="S59" s="4">
         <v>1045</v>
       </c>
-      <c r="S59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T59" s="7">
+      <c r="T59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U59" s="7">
         <v>43616</v>
       </c>
-      <c r="U59" s="4" t="s">
+      <c r="V59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="V59" s="4" t="s">
+      <c r="W59" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W59" s="4">
+      <c r="X59" s="4">
         <v>0</v>
       </c>
-      <c r="X59" s="4" t="s">
+      <c r="Y59" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y59" s="4" t="s">
+      <c r="Z59" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Z59" s="4" t="s">
+      <c r="AA59" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>482</v>
       </c>
@@ -6436,68 +6612,71 @@
       <c r="E60" s="5">
         <v>2019</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="G60" t="s">
         <v>330</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60" s="4">
         <v>14.25</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="K60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="L60" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="M60" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="N60" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N60" s="4">
+      <c r="O60" s="4">
         <v>42.782150000000001</v>
       </c>
-      <c r="O60" s="4">
+      <c r="P60" s="4">
         <v>-100.05577</v>
       </c>
-      <c r="P60" s="4">
+      <c r="Q60" s="4">
         <v>658</v>
       </c>
-      <c r="Q60" s="6">
+      <c r="R60" s="6">
         <v>43616</v>
       </c>
-      <c r="R60" s="4">
+      <c r="S60" s="4">
         <v>730</v>
       </c>
-      <c r="S60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T60" s="7">
+      <c r="T60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U60" s="7">
         <v>43616</v>
       </c>
-      <c r="U60" s="4" t="s">
+      <c r="V60" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="V60" s="4" t="s">
+      <c r="W60" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0.35714285699999998</v>
       </c>
-      <c r="X60" s="4" t="s">
+      <c r="Y60" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Y60" s="4" t="s">
+      <c r="Z60" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>497</v>
       </c>
@@ -6510,71 +6689,74 @@
       <c r="E61" s="5">
         <v>2019</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" t="s">
         <v>563</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61">
+        <v>12</v>
+      </c>
+      <c r="I61" s="4">
         <v>11.75</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="K61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="L61" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="M61" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="N61" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N61" s="4">
+      <c r="O61" s="4">
         <v>41.776620000000001</v>
       </c>
-      <c r="O61" s="4">
+      <c r="P61" s="4">
         <v>-105.35683</v>
       </c>
-      <c r="P61" s="4">
+      <c r="Q61" s="4">
         <v>1861</v>
       </c>
-      <c r="Q61" s="6">
+      <c r="R61" s="6">
         <v>43639</v>
       </c>
-      <c r="R61" s="4">
+      <c r="S61" s="4">
         <v>1845</v>
       </c>
-      <c r="S61" s="7">
+      <c r="T61" s="7">
         <v>43639</v>
       </c>
-      <c r="T61" s="7">
+      <c r="U61" s="7">
         <v>43640</v>
       </c>
-      <c r="U61" s="4" t="s">
+      <c r="V61" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V61" s="4" t="s">
+      <c r="W61" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>1</v>
       </c>
-      <c r="X61" s="4" t="s">
+      <c r="Y61" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y61" s="4" t="s">
+      <c r="Z61" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Z61" s="4" t="s">
+      <c r="AA61" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>558</v>
       </c>
@@ -6587,68 +6769,71 @@
       <c r="E62" s="5">
         <v>2019</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="G62" t="s">
         <v>562</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62" s="4">
         <v>15.25</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="K62" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="L62" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="M62" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="N62" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N62" s="4">
+      <c r="O62" s="4">
         <v>42.697279999999999</v>
       </c>
-      <c r="O62" s="4">
+      <c r="P62" s="4">
         <v>-103.56694</v>
       </c>
-      <c r="P62" s="4">
+      <c r="Q62" s="4">
         <v>1261</v>
       </c>
-      <c r="Q62" s="6">
+      <c r="R62" s="6">
         <v>43637</v>
       </c>
-      <c r="R62" s="4">
+      <c r="S62" s="4">
         <v>1030</v>
-      </c>
-      <c r="S62" s="7">
-        <v>43637</v>
       </c>
       <c r="T62" s="7">
         <v>43637</v>
       </c>
-      <c r="U62" s="4" t="s">
+      <c r="U62" s="7">
+        <v>43637</v>
+      </c>
+      <c r="V62" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="V62" s="4" t="s">
+      <c r="W62" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0</v>
       </c>
-      <c r="X62" s="4" t="s">
+      <c r="Y62" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y62" s="4" t="s">
+      <c r="Z62" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>480</v>
       </c>
@@ -6661,68 +6846,71 @@
       <c r="E63" s="5">
         <v>2019</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G63" t="s">
         <v>562</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63" s="4">
         <v>13.5</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="L63" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="M63" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="N63" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N63" s="4">
+      <c r="O63" s="4">
         <v>42.783540000000002</v>
       </c>
-      <c r="O63" s="4">
+      <c r="P63" s="4">
         <v>-100.04201</v>
       </c>
-      <c r="P63" s="4">
+      <c r="Q63" s="4">
         <v>645</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="R63" s="6">
         <v>43615</v>
       </c>
-      <c r="R63" s="4">
+      <c r="S63" s="4">
         <v>630</v>
       </c>
-      <c r="S63" s="7">
+      <c r="T63" s="7">
         <v>43617</v>
       </c>
-      <c r="T63" s="7">
+      <c r="U63" s="7">
         <v>43817</v>
       </c>
-      <c r="U63" s="4" t="s">
+      <c r="V63" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V63" s="4" t="s">
+      <c r="W63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0</v>
       </c>
-      <c r="X63" s="4" t="s">
+      <c r="Y63" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y63" s="4" t="s">
+      <c r="Z63" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>481</v>
       </c>
@@ -6735,71 +6923,74 @@
       <c r="E64" s="5">
         <v>2019</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="19" t="s">
+      <c r="G64" t="s">
         <v>562</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64" s="4">
         <v>15.75</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="L64" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="M64" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="N64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N64" s="4">
+      <c r="O64" s="4">
         <v>42.783540000000002</v>
       </c>
-      <c r="O64" s="4">
+      <c r="P64" s="4">
         <v>-100.04201</v>
       </c>
-      <c r="P64" s="4">
+      <c r="Q64" s="4">
         <v>645</v>
       </c>
-      <c r="Q64" s="6">
+      <c r="R64" s="6">
         <v>43615</v>
       </c>
-      <c r="R64" s="4">
+      <c r="S64" s="4">
         <v>800</v>
       </c>
-      <c r="S64" s="7">
+      <c r="T64" s="7">
         <v>43617</v>
       </c>
-      <c r="T64" s="7">
+      <c r="U64" s="7">
         <v>43817</v>
       </c>
-      <c r="U64" s="4" t="s">
+      <c r="V64" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V64" s="4" t="s">
+      <c r="W64" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="W64" s="4">
+      <c r="X64" s="4">
         <v>0</v>
       </c>
-      <c r="X64" s="4" t="s">
+      <c r="Y64" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y64" s="4" t="s">
+      <c r="Z64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Z64" s="4" t="s">
+      <c r="AA64" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>495</v>
       </c>
@@ -6812,71 +7003,74 @@
       <c r="E65" s="5">
         <v>2019</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" t="s">
         <v>562</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="I65" s="4">
         <v>15</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="L65" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L65" s="4" t="s">
+      <c r="M65" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M65" s="4" t="s">
+      <c r="N65" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N65" s="4">
+      <c r="O65" s="4">
         <v>42.660130000000002</v>
       </c>
-      <c r="O65" s="4">
+      <c r="P65" s="4">
         <v>-103.46369</v>
       </c>
-      <c r="P65" s="4">
+      <c r="Q65" s="4">
         <v>1157</v>
       </c>
-      <c r="Q65" s="6">
+      <c r="R65" s="6">
         <v>43637</v>
       </c>
-      <c r="R65" s="4">
+      <c r="S65" s="4">
         <v>615</v>
       </c>
-      <c r="S65" s="7">
+      <c r="T65" s="7">
         <v>43637</v>
       </c>
-      <c r="T65" s="7">
+      <c r="U65" s="7">
         <v>43817</v>
       </c>
-      <c r="U65" s="4" t="s">
+      <c r="V65" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V65" s="4" t="s">
+      <c r="W65" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0</v>
       </c>
-      <c r="X65" s="4" t="s">
+      <c r="Y65" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y65" s="4" t="s">
+      <c r="Z65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Z65" s="4" t="s">
+      <c r="AA65" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>496</v>
       </c>
@@ -6889,68 +7083,71 @@
       <c r="E66" s="5">
         <v>2019</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="G66" t="s">
         <v>330</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66" s="4">
         <v>14.5</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="J66" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="K66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="L66" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="M66" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="N66" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N66" s="4">
+      <c r="O66" s="4">
         <v>42.690330000000003</v>
       </c>
-      <c r="O66" s="4">
+      <c r="P66" s="4">
         <v>-103.52949</v>
       </c>
-      <c r="P66" s="4">
+      <c r="Q66" s="4">
         <v>1226</v>
       </c>
-      <c r="Q66" s="6">
+      <c r="R66" s="6">
         <v>43637</v>
       </c>
-      <c r="R66" s="4">
+      <c r="S66" s="4">
         <v>800</v>
       </c>
-      <c r="S66" s="7">
+      <c r="T66" s="7">
         <v>43637</v>
       </c>
-      <c r="T66" s="7">
+      <c r="U66" s="7">
         <v>43817</v>
       </c>
-      <c r="U66" s="4" t="s">
+      <c r="V66" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V66" s="4" t="s">
+      <c r="W66" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="W66" s="4">
+      <c r="X66" s="4">
         <v>0.78571428600000004</v>
       </c>
-      <c r="X66" s="4" t="s">
+      <c r="Y66" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Y66" s="4" t="s">
+      <c r="Z66" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>490</v>
       </c>
@@ -6963,68 +7160,71 @@
       <c r="E67" s="5">
         <v>2019</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" t="s">
         <v>563</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67">
+        <v>9</v>
+      </c>
+      <c r="I67" s="4">
         <v>14.75</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="K67" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="L67" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="M67" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M67" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N67" s="4">
+      <c r="O67" s="4">
         <v>42.631264000000002</v>
       </c>
-      <c r="O67" s="4">
+      <c r="P67" s="4">
         <v>-103.31474300000001</v>
       </c>
-      <c r="P67" s="4">
+      <c r="Q67" s="4">
         <v>1232</v>
       </c>
-      <c r="Q67" s="6">
+      <c r="R67" s="6">
         <v>43628</v>
       </c>
-      <c r="R67" s="4">
+      <c r="S67" s="4">
         <v>745</v>
       </c>
-      <c r="S67" s="7">
+      <c r="T67" s="7">
         <v>43629</v>
       </c>
-      <c r="T67" s="7">
+      <c r="U67" s="7">
         <v>43816</v>
       </c>
-      <c r="U67" s="4" t="s">
+      <c r="V67" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V67" s="4" t="s">
+      <c r="W67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>1</v>
       </c>
-      <c r="X67" s="4" t="s">
+      <c r="Y67" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y67" s="4" t="s">
+      <c r="Z67" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>478</v>
       </c>
@@ -7037,71 +7237,74 @@
       <c r="E68" s="5">
         <v>2019</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G68" s="19" t="s">
+      <c r="G68" t="s">
         <v>562</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68" s="4">
         <v>15.25</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="L68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L68" s="4" t="s">
+      <c r="M68" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M68" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N68" s="4">
+      <c r="O68" s="4">
         <v>42.76502</v>
       </c>
-      <c r="O68" s="4">
+      <c r="P68" s="4">
         <v>-98.0595</v>
       </c>
-      <c r="P68" s="4">
+      <c r="Q68" s="4">
         <v>392</v>
       </c>
-      <c r="Q68" s="6">
+      <c r="R68" s="6">
         <v>43608</v>
       </c>
-      <c r="R68" s="4">
+      <c r="S68" s="4">
         <v>900</v>
       </c>
-      <c r="S68" s="7">
+      <c r="T68" s="7">
         <v>43617</v>
       </c>
-      <c r="T68" s="7">
+      <c r="U68" s="7">
         <v>43816</v>
       </c>
-      <c r="U68" s="4" t="s">
+      <c r="V68" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V68" s="4" t="s">
+      <c r="W68" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W68" s="4">
+      <c r="X68" s="4">
         <v>0</v>
       </c>
-      <c r="X68" s="4" t="s">
+      <c r="Y68" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Y68" s="4" t="s">
+      <c r="Z68" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z68" s="4" t="s">
+      <c r="AA68" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>479</v>
       </c>
@@ -7114,71 +7317,74 @@
       <c r="E69" s="5">
         <v>2019</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="G69" t="s">
         <v>562</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69" s="4">
         <v>15.25</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="J69" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="K69" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="L69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="M69" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M69" s="4" t="s">
+      <c r="N69" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N69" s="4">
+      <c r="O69" s="4">
         <v>42.765500000000003</v>
       </c>
-      <c r="O69" s="4">
+      <c r="P69" s="4">
         <v>-98.06626</v>
       </c>
-      <c r="P69" s="4">
+      <c r="Q69" s="4">
         <v>423</v>
       </c>
-      <c r="Q69" s="6">
+      <c r="R69" s="6">
         <v>43610</v>
       </c>
-      <c r="R69" s="4">
+      <c r="S69" s="4">
         <v>900</v>
       </c>
-      <c r="S69" s="7">
+      <c r="T69" s="7">
         <v>43617</v>
       </c>
-      <c r="T69" s="7">
+      <c r="U69" s="7">
         <v>43817</v>
       </c>
-      <c r="U69" s="4" t="s">
+      <c r="V69" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V69" s="4" t="s">
+      <c r="W69" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0</v>
       </c>
-      <c r="X69" s="4" t="s">
+      <c r="Y69" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="Y69" s="4" t="s">
+      <c r="Z69" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Z69" s="4" t="s">
+      <c r="AA69" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>503</v>
       </c>
@@ -7194,68 +7400,71 @@
       <c r="E70" s="5">
         <v>2019</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F70" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="G70" t="s">
         <v>563</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70">
+        <v>12</v>
+      </c>
+      <c r="I70" s="4">
         <v>15.5</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="J70" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="L70" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="M70" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="N70" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N70" s="12">
+      <c r="O70">
         <v>41.778010000000002</v>
       </c>
-      <c r="O70" s="12">
+      <c r="P70">
         <v>-105.37679</v>
       </c>
-      <c r="P70" s="4">
+      <c r="Q70" s="4">
         <v>1913</v>
       </c>
-      <c r="Q70" s="6">
+      <c r="R70" s="6">
         <v>43650</v>
       </c>
-      <c r="R70" s="4">
+      <c r="S70" s="4">
         <v>1045</v>
       </c>
-      <c r="S70" s="7">
+      <c r="T70" s="7">
         <v>43650</v>
       </c>
-      <c r="T70" s="7">
+      <c r="U70" s="7">
         <v>43817</v>
       </c>
-      <c r="U70" s="4" t="s">
+      <c r="V70" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V70" s="4" t="s">
+      <c r="W70" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W70" s="4">
+      <c r="X70" s="4">
         <v>1</v>
       </c>
-      <c r="X70" s="4" t="s">
+      <c r="Y70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y70" s="4" t="s">
+      <c r="Z70" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>491</v>
       </c>
@@ -7268,68 +7477,71 @@
       <c r="E71" s="5">
         <v>2019</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G71" s="19" t="s">
+      <c r="G71" t="s">
         <v>563</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71">
+        <v>10</v>
+      </c>
+      <c r="I71" s="4">
         <v>14.75</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="J71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="K71" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="L71" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L71" s="4" t="s">
+      <c r="M71" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M71" s="4" t="s">
+      <c r="N71" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N71" s="12">
+      <c r="O71">
         <v>42.660130000000002</v>
       </c>
-      <c r="O71" s="12">
+      <c r="P71">
         <v>-103.46369</v>
       </c>
-      <c r="P71" s="4">
+      <c r="Q71" s="4">
         <v>1157</v>
       </c>
-      <c r="Q71" s="6">
+      <c r="R71" s="6">
         <v>43631</v>
       </c>
-      <c r="R71" s="4">
+      <c r="S71" s="4">
         <v>600</v>
       </c>
-      <c r="S71" s="7">
+      <c r="T71" s="7">
         <v>43632</v>
       </c>
-      <c r="T71" s="7">
+      <c r="U71" s="7">
         <v>43816</v>
       </c>
-      <c r="U71" s="4" t="s">
+      <c r="V71" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V71" s="4" t="s">
+      <c r="W71" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W71" s="4">
+      <c r="X71" s="4">
         <v>1</v>
       </c>
-      <c r="X71" s="4" t="s">
+      <c r="Y71" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y71" s="4" t="s">
+      <c r="Z71" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>555</v>
       </c>
@@ -7345,71 +7557,74 @@
       <c r="E72" s="5">
         <v>2019</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G72" t="s">
         <v>562</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72" s="4">
         <v>14.75</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="J72" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="K72" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="L72" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="M72" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M72" s="4" t="s">
+      <c r="N72" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N72" s="4">
+      <c r="O72" s="4">
         <v>42.783009999999997</v>
       </c>
-      <c r="O72" s="4">
+      <c r="P72" s="4">
         <v>-100.04564000000001</v>
       </c>
-      <c r="P72" s="4">
+      <c r="Q72" s="4">
         <v>656</v>
       </c>
-      <c r="Q72" s="6">
+      <c r="R72" s="6">
         <v>43615</v>
       </c>
-      <c r="R72" s="4">
+      <c r="S72" s="4">
         <v>745</v>
       </c>
-      <c r="S72" s="7">
+      <c r="T72" s="7">
         <v>43617</v>
       </c>
-      <c r="T72" s="7">
+      <c r="U72" s="7">
         <v>43817</v>
       </c>
-      <c r="U72" s="4" t="s">
+      <c r="V72" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V72" s="4" t="s">
+      <c r="W72" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W72" s="4">
+      <c r="X72" s="4">
         <v>0</v>
       </c>
-      <c r="X72" s="4" t="s">
+      <c r="Y72" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y72" s="4" t="s">
+      <c r="Z72" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Z72" s="4" t="s">
+      <c r="AA72" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>494</v>
       </c>
@@ -7422,71 +7637,74 @@
       <c r="E73" s="5">
         <v>2019</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F73" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="G73" t="s">
         <v>330</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73" s="4">
         <v>15</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="J73" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="K73" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="L73" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="M73" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="N73" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N73" s="4">
+      <c r="O73" s="4">
         <v>42.697119999999998</v>
       </c>
-      <c r="O73" s="4">
+      <c r="P73" s="4">
         <v>-103.56570000000001</v>
       </c>
-      <c r="P73" s="4">
+      <c r="Q73" s="4">
         <v>1252</v>
       </c>
-      <c r="Q73" s="6">
+      <c r="R73" s="6">
         <v>43631</v>
       </c>
-      <c r="R73" s="4">
+      <c r="S73" s="4">
         <v>1815</v>
       </c>
-      <c r="S73" s="7">
+      <c r="T73" s="7">
         <v>43632</v>
       </c>
-      <c r="T73" s="7">
+      <c r="U73" s="7">
         <v>43816</v>
       </c>
-      <c r="U73" s="4" t="s">
+      <c r="V73" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V73" s="4" t="s">
+      <c r="W73" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W73" s="4">
+      <c r="X73" s="4">
         <v>0.71428571399999996</v>
       </c>
-      <c r="X73" s="4" t="s">
+      <c r="Y73" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Y73" s="4" t="s">
+      <c r="Z73" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Z73" s="4" t="s">
+      <c r="AA73" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>487</v>
       </c>
@@ -7499,71 +7717,74 @@
       <c r="E74" s="5">
         <v>2019</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G74" s="19" t="s">
+      <c r="G74" t="s">
         <v>562</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74">
+        <v>7</v>
+      </c>
+      <c r="I74" s="4">
         <v>14</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="J74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="K74" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="L74" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L74" s="4" t="s">
+      <c r="M74" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="N74" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N74" s="4">
+      <c r="O74" s="4">
         <v>42.785640000000001</v>
       </c>
-      <c r="O74" s="4">
+      <c r="P74" s="4">
         <v>-100.92913</v>
       </c>
-      <c r="P74" s="4">
+      <c r="Q74" s="4">
         <v>798</v>
       </c>
-      <c r="Q74" s="6">
+      <c r="R74" s="6">
         <v>43620</v>
       </c>
-      <c r="R74" s="4">
+      <c r="S74" s="4">
         <v>1405</v>
       </c>
-      <c r="S74" s="7">
+      <c r="T74" s="7">
         <v>43621</v>
       </c>
-      <c r="T74" s="7">
+      <c r="U74" s="7">
         <v>43816</v>
       </c>
-      <c r="U74" s="4" t="s">
+      <c r="V74" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V74" s="4" t="s">
+      <c r="W74" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W74" s="4">
+      <c r="X74" s="4">
         <v>0</v>
       </c>
-      <c r="X74" s="4" t="s">
+      <c r="Y74" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="Y74" s="4" t="s">
+      <c r="Z74" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="Z74" s="4" t="s">
+      <c r="AA74" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>489</v>
       </c>
@@ -7576,68 +7797,71 @@
       <c r="E75" s="5">
         <v>2019</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="F75" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="G75" s="19" t="s">
+      <c r="G75" t="s">
         <v>330</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75">
+        <v>9</v>
+      </c>
+      <c r="I75" s="4">
         <v>15</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="K75" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="L75" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="M75" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M75" s="4" t="s">
+      <c r="N75" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N75" s="4">
+      <c r="O75" s="4">
         <v>42.630679999999998</v>
       </c>
-      <c r="O75" s="4">
+      <c r="P75" s="4">
         <v>-103.31294</v>
       </c>
-      <c r="P75" s="4">
+      <c r="Q75" s="4">
         <v>1236</v>
       </c>
-      <c r="Q75" s="6">
+      <c r="R75" s="6">
         <v>43628</v>
       </c>
-      <c r="R75" s="4">
+      <c r="S75" s="4">
         <v>600</v>
       </c>
-      <c r="S75" s="7">
+      <c r="T75" s="7">
         <v>43629</v>
       </c>
-      <c r="T75" s="7">
+      <c r="U75" s="7">
         <v>43816</v>
       </c>
-      <c r="U75" s="4" t="s">
+      <c r="V75" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V75" s="4" t="s">
+      <c r="W75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W75" s="4">
+      <c r="X75" s="4">
         <v>0.85714285700000004</v>
       </c>
-      <c r="X75" s="4" t="s">
+      <c r="Y75" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Y75" s="4" t="s">
+      <c r="Z75" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>493</v>
       </c>
@@ -7650,71 +7874,74 @@
       <c r="E76" s="5">
         <v>2019</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G76" s="19" t="s">
+      <c r="G76" t="s">
         <v>562</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76">
+        <v>10</v>
+      </c>
+      <c r="I76" s="4">
         <v>15</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="J76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="K76" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="L76" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L76" s="4" t="s">
+      <c r="M76" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M76" s="4" t="s">
+      <c r="N76" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N76" s="4">
+      <c r="O76" s="4">
         <v>42.660040000000002</v>
       </c>
-      <c r="O76" s="4">
+      <c r="P76" s="4">
         <v>-103.46460999999999</v>
       </c>
-      <c r="P76" s="4">
+      <c r="Q76" s="4">
         <v>1157</v>
       </c>
-      <c r="Q76" s="6">
+      <c r="R76" s="6">
         <v>43631</v>
       </c>
-      <c r="R76" s="4">
+      <c r="S76" s="4">
         <v>830</v>
       </c>
-      <c r="S76" s="7">
+      <c r="T76" s="7">
         <v>43632</v>
       </c>
-      <c r="T76" s="7">
+      <c r="U76" s="7">
         <v>43817</v>
       </c>
-      <c r="U76" s="4" t="s">
+      <c r="V76" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V76" s="4" t="s">
+      <c r="W76" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W76" s="4">
+      <c r="X76" s="4">
         <v>0</v>
       </c>
-      <c r="X76" s="4" t="s">
+      <c r="Y76" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y76" s="4" t="s">
+      <c r="Z76" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Z76" s="4" t="s">
+      <c r="AA76" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>486</v>
       </c>
@@ -7727,71 +7954,74 @@
       <c r="E77" s="5">
         <v>2019</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="G77" t="s">
         <v>562</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77">
+        <v>7</v>
+      </c>
+      <c r="I77" s="4">
         <v>13</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="J77" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="K77" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="L77" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L77" s="4" t="s">
+      <c r="M77" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="N77" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N77" s="4">
+      <c r="O77" s="4">
         <v>42.785640000000001</v>
       </c>
-      <c r="O77" s="4">
+      <c r="P77" s="4">
         <v>-100.92913</v>
       </c>
-      <c r="P77" s="4">
+      <c r="Q77" s="4">
         <v>798</v>
       </c>
-      <c r="Q77" s="6">
+      <c r="R77" s="6">
         <v>43620</v>
       </c>
-      <c r="R77" s="4">
+      <c r="S77" s="4">
         <v>1400</v>
       </c>
-      <c r="S77" s="7">
+      <c r="T77" s="7">
         <v>43621</v>
       </c>
-      <c r="T77" s="7">
+      <c r="U77" s="7">
         <v>43816</v>
       </c>
-      <c r="U77" s="4" t="s">
+      <c r="V77" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V77" s="4" t="s">
+      <c r="W77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W77" s="4">
+      <c r="X77" s="4">
         <v>7.1428570999999996E-2</v>
       </c>
-      <c r="X77" s="4" t="s">
+      <c r="Y77" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Y77" s="4" t="s">
+      <c r="Z77" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="Z77" s="4" t="s">
+      <c r="AA77" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>488</v>
       </c>
@@ -7804,68 +8034,71 @@
       <c r="E78" s="5">
         <v>2019</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="19" t="s">
+      <c r="G78" t="s">
         <v>563</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78">
+        <v>9</v>
+      </c>
+      <c r="I78" s="4">
         <v>15</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="K78" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="L78" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="M78" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="N78" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N78" s="4">
+      <c r="O78" s="4">
         <v>42.63194</v>
       </c>
-      <c r="O78" s="4">
+      <c r="P78" s="4">
         <v>-103.31535</v>
       </c>
-      <c r="P78" s="4">
+      <c r="Q78" s="4">
         <v>1228</v>
       </c>
-      <c r="Q78" s="6">
+      <c r="R78" s="6">
         <v>43627</v>
       </c>
-      <c r="R78" s="4">
+      <c r="S78" s="4">
         <v>1800</v>
       </c>
-      <c r="S78" s="7">
+      <c r="T78" s="7">
         <v>43629</v>
       </c>
-      <c r="T78" s="7">
+      <c r="U78" s="7">
         <v>43816</v>
       </c>
-      <c r="U78" s="4" t="s">
+      <c r="V78" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V78" s="4" t="s">
+      <c r="W78" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W78" s="4">
+      <c r="X78" s="4">
         <v>1</v>
       </c>
-      <c r="X78" s="4" t="s">
+      <c r="Y78" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y78" s="4" t="s">
+      <c r="Z78" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>485</v>
       </c>
@@ -7878,68 +8111,71 @@
       <c r="E79" s="5">
         <v>2019</v>
       </c>
-      <c r="F79" s="18" t="s">
+      <c r="F79" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="G79" s="19" t="s">
+      <c r="G79" t="s">
         <v>330</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79">
+        <v>7</v>
+      </c>
+      <c r="I79" s="4">
         <v>13.5</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="K79" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="L79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L79" s="4" t="s">
+      <c r="M79" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="N79" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N79" s="4">
+      <c r="O79" s="4">
         <v>42.785159999999998</v>
       </c>
-      <c r="O79" s="4">
+      <c r="P79" s="4">
         <v>-100.93164</v>
       </c>
-      <c r="P79" s="4">
+      <c r="Q79" s="4">
         <v>802</v>
       </c>
-      <c r="Q79" s="6">
+      <c r="R79" s="6">
         <v>43620</v>
       </c>
-      <c r="R79" s="4">
+      <c r="S79" s="4">
         <v>1100</v>
       </c>
-      <c r="S79" s="7">
+      <c r="T79" s="7">
         <v>43621</v>
       </c>
-      <c r="T79" s="7">
+      <c r="U79" s="7">
         <v>43816</v>
       </c>
-      <c r="U79" s="4" t="s">
+      <c r="V79" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V79" s="4" t="s">
+      <c r="W79" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0.14285714299999999</v>
       </c>
-      <c r="X79" s="4" t="s">
+      <c r="Y79" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Y79" s="4" t="s">
+      <c r="Z79" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>492</v>
       </c>
@@ -7952,68 +8188,71 @@
       <c r="E80" s="5">
         <v>2019</v>
       </c>
-      <c r="F80" s="18" t="s">
+      <c r="F80" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G80" s="19" t="s">
+      <c r="G80" t="s">
         <v>562</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80">
+        <v>10</v>
+      </c>
+      <c r="I80" s="4">
         <v>14.5</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="J80" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="K80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="L80" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="M80" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M80" s="4" t="s">
+      <c r="N80" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N80" s="4">
+      <c r="O80" s="4">
         <v>42.660040000000002</v>
       </c>
-      <c r="O80" s="4">
+      <c r="P80" s="4">
         <v>-103.46460999999999</v>
       </c>
-      <c r="P80" s="4">
+      <c r="Q80" s="4">
         <v>1157</v>
       </c>
-      <c r="Q80" s="6">
+      <c r="R80" s="6">
         <v>43631</v>
       </c>
-      <c r="R80" s="4">
+      <c r="S80" s="4">
         <v>715</v>
       </c>
-      <c r="S80" s="7">
+      <c r="T80" s="7">
         <v>43632</v>
       </c>
-      <c r="T80" s="7">
+      <c r="U80" s="7">
         <v>43816</v>
       </c>
-      <c r="U80" s="4" t="s">
+      <c r="V80" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V80" s="4" t="s">
+      <c r="W80" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0</v>
       </c>
-      <c r="X80" s="4" t="s">
+      <c r="Y80" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y80" s="4" t="s">
+      <c r="Z80" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>498</v>
       </c>
@@ -8026,71 +8265,74 @@
       <c r="E81" s="5">
         <v>2019</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G81" s="19" t="s">
+      <c r="G81" t="s">
         <v>563</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81">
+        <v>12</v>
+      </c>
+      <c r="I81" s="4">
         <v>11.5</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="J81" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="K81" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="L81" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="M81" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M81" s="4" t="s">
+      <c r="N81" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N81" s="4">
+      <c r="O81" s="4">
         <v>41.777569999999997</v>
       </c>
-      <c r="O81" s="4">
+      <c r="P81" s="4">
         <v>-105.37838000000001</v>
       </c>
-      <c r="P81" s="4">
+      <c r="Q81" s="4">
         <v>1917</v>
       </c>
-      <c r="Q81" s="6">
+      <c r="R81" s="6">
         <v>43650</v>
       </c>
-      <c r="R81" s="4">
+      <c r="S81" s="4">
         <v>1230</v>
       </c>
-      <c r="S81" s="7">
+      <c r="T81" s="7">
         <v>43650</v>
       </c>
-      <c r="T81" s="7">
+      <c r="U81" s="7">
         <v>43817</v>
       </c>
-      <c r="U81" s="4" t="s">
+      <c r="V81" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V81" s="4" t="s">
+      <c r="W81" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>1</v>
       </c>
-      <c r="X81" s="4" t="s">
+      <c r="Y81" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y81" s="4" t="s">
+      <c r="Z81" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Z81" s="4" t="s">
+      <c r="AA81" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>556</v>
       </c>
@@ -8106,71 +8348,74 @@
       <c r="E82" s="5">
         <v>2019</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F82" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G82" s="19" t="s">
+      <c r="G82" t="s">
         <v>330</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="I82" s="4">
         <v>14.75</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="J82" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="K82" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="L82" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="M82" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M82" s="4" t="s">
+      <c r="N82" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N82" s="4">
+      <c r="O82" s="4">
         <v>42.652450000000002</v>
       </c>
-      <c r="O82" s="4">
+      <c r="P82" s="4">
         <v>-103.47906</v>
       </c>
-      <c r="P82" s="4">
+      <c r="Q82" s="4">
         <v>1171</v>
       </c>
-      <c r="Q82" s="6">
+      <c r="R82" s="6">
         <v>43658</v>
       </c>
-      <c r="R82" s="4">
+      <c r="S82" s="4">
         <v>810</v>
       </c>
-      <c r="S82" s="7">
+      <c r="T82" s="7">
         <v>43658</v>
       </c>
-      <c r="T82" s="7">
+      <c r="U82" s="7">
         <v>43817</v>
       </c>
-      <c r="U82" s="4" t="s">
+      <c r="V82" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V82" s="4" t="s">
+      <c r="W82" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.71428571399999996</v>
       </c>
-      <c r="X82" s="4" t="s">
+      <c r="Y82" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Y82" s="4" t="s">
+      <c r="Z82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Z82" s="4" t="s">
+      <c r="AA82" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>554</v>
       </c>
@@ -8186,71 +8431,74 @@
       <c r="E83" s="5">
         <v>2019</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G83" s="19" t="s">
+      <c r="G83" t="s">
         <v>563</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83">
+        <v>10</v>
+      </c>
+      <c r="I83" s="4">
         <v>14.5</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="J83" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="K83" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="L83" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="M83" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M83" s="4" t="s">
+      <c r="N83" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N83" s="4">
+      <c r="O83" s="4">
         <v>42.66113</v>
       </c>
-      <c r="O83" s="4">
+      <c r="P83" s="4">
         <v>-103.46397</v>
       </c>
-      <c r="P83" s="4">
+      <c r="Q83" s="4">
         <v>1149</v>
       </c>
-      <c r="Q83" s="6">
+      <c r="R83" s="6">
         <v>43658</v>
       </c>
-      <c r="R83" s="4">
+      <c r="S83" s="4">
         <v>610</v>
       </c>
-      <c r="S83" s="7">
+      <c r="T83" s="7">
         <v>43658</v>
       </c>
-      <c r="T83" s="7">
+      <c r="U83" s="7">
         <v>43817</v>
       </c>
-      <c r="U83" s="4" t="s">
+      <c r="V83" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V83" s="4" t="s">
+      <c r="W83" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.928571429</v>
       </c>
-      <c r="X83" s="4" t="s">
+      <c r="Y83" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y83" s="4" t="s">
+      <c r="Z83" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Z83" s="4" t="s">
+      <c r="AA83" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -8266,48 +8514,45 @@
       <c r="E84" s="5">
         <v>2019</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G84" s="18" t="s">
+      <c r="G84" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H84" s="4">
+      <c r="I84" s="4">
         <v>15</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="J84" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="K84" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="L84" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="M84" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M84" s="4" t="s">
+      <c r="N84" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N84" s="4">
+      <c r="O84" s="4">
         <v>42.76502</v>
       </c>
-      <c r="O84" s="4">
+      <c r="P84" s="4">
         <v>-98.0595</v>
       </c>
-      <c r="P84" s="4">
+      <c r="Q84" s="4">
         <v>392</v>
       </c>
-      <c r="Q84" s="6">
+      <c r="R84" s="6">
         <v>43610</v>
       </c>
-      <c r="R84" s="4">
+      <c r="S84" s="4">
         <v>715</v>
       </c>
-      <c r="S84" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T84" s="4" t="s">
         <v>21</v>
       </c>
@@ -8315,22 +8560,25 @@
         <v>21</v>
       </c>
       <c r="V84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W84" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0</v>
       </c>
-      <c r="X84" s="4" t="s">
+      <c r="Y84" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y84" s="4" t="s">
+      <c r="Z84" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Z84" s="4" t="s">
+      <c r="AA84" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -8346,48 +8594,45 @@
       <c r="E85" s="5">
         <v>2019</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G85" s="18" t="s">
+      <c r="G85" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H85" s="4">
+      <c r="I85" s="4">
         <v>13.75</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="J85" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="K85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="L85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="M85" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="N85" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N85" s="4">
+      <c r="O85" s="4">
         <v>42.782870000000003</v>
       </c>
-      <c r="O85" s="4">
+      <c r="P85" s="4">
         <v>-100.04859999999999</v>
       </c>
-      <c r="P85" s="4">
+      <c r="Q85" s="4">
         <v>646</v>
       </c>
-      <c r="Q85" s="6">
+      <c r="R85" s="6">
         <v>43615</v>
       </c>
-      <c r="R85" s="4">
+      <c r="S85" s="4">
         <v>1000</v>
       </c>
-      <c r="S85" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T85" s="4" t="s">
         <v>21</v>
       </c>
@@ -8395,22 +8640,25 @@
         <v>21</v>
       </c>
       <c r="V85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W85" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0</v>
       </c>
-      <c r="X85" s="4" t="s">
+      <c r="Y85" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y85" s="4" t="s">
+      <c r="Z85" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z85" s="4" t="s">
+      <c r="AA85" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -8426,48 +8674,45 @@
       <c r="E86" s="5">
         <v>2019</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="F86" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G86" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="I86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="K86" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="L86" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="M86" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M86" s="4" t="s">
+      <c r="N86" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N86" s="4">
+      <c r="O86" s="4">
         <v>41.777569999999997</v>
       </c>
-      <c r="O86" s="4">
+      <c r="P86" s="4">
         <v>-105.37838000000001</v>
       </c>
-      <c r="P86" s="4">
+      <c r="Q86" s="4">
         <v>1917</v>
       </c>
-      <c r="Q86" s="6">
+      <c r="R86" s="6">
         <v>43650</v>
       </c>
-      <c r="R86" s="4">
+      <c r="S86" s="4">
         <v>1220</v>
       </c>
-      <c r="S86" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T86" s="4" t="s">
         <v>21</v>
       </c>
@@ -8475,22 +8720,25 @@
         <v>21</v>
       </c>
       <c r="V86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W86" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="W86" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="X86" s="4" t="s">
+      <c r="X86" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y86" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y86" s="4" t="s">
+      <c r="Z86" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Z86" s="4" t="s">
+      <c r="AA86" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -8506,48 +8754,45 @@
       <c r="E87" s="5">
         <v>2019</v>
       </c>
-      <c r="F87" s="18" t="s">
+      <c r="F87" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G87" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="H87" s="4">
+      <c r="I87" s="4">
         <v>15</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="J87" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="K87" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="L87" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="M87" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M87" s="4" t="s">
+      <c r="N87" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N87" s="4">
+      <c r="O87" s="4">
         <v>41.778289999999998</v>
       </c>
-      <c r="O87" s="4">
+      <c r="P87" s="4">
         <v>-105.36328</v>
       </c>
-      <c r="P87" s="4">
+      <c r="Q87" s="4">
         <v>1833</v>
       </c>
-      <c r="Q87" s="6">
+      <c r="R87" s="6">
         <v>43652</v>
       </c>
-      <c r="R87" s="4">
+      <c r="S87" s="4">
         <v>700</v>
       </c>
-      <c r="S87" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T87" s="4" t="s">
         <v>21</v>
       </c>
@@ -8555,22 +8800,25 @@
         <v>21</v>
       </c>
       <c r="V87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W87" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>1</v>
       </c>
-      <c r="X87" s="4" t="s">
+      <c r="Y87" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y87" s="4" t="s">
+      <c r="Z87" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Z87" s="4" t="s">
+      <c r="AA87" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -8586,48 +8834,45 @@
       <c r="E88" s="5">
         <v>2019</v>
       </c>
-      <c r="F88" s="18" t="s">
+      <c r="F88" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="G88" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H88" s="4">
+      <c r="I88" s="4">
         <v>14.25</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="J88" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J88" s="4" t="s">
+      <c r="K88" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K88" s="4" t="s">
+      <c r="L88" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L88" s="4" t="s">
+      <c r="M88" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M88" s="4" t="s">
+      <c r="N88" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N88" s="4">
+      <c r="O88" s="4">
         <v>42.659880000000001</v>
       </c>
-      <c r="O88" s="4">
+      <c r="P88" s="4">
         <v>-103.46648999999999</v>
       </c>
-      <c r="P88" s="4">
+      <c r="Q88" s="4">
         <v>1167</v>
       </c>
-      <c r="Q88" s="6">
+      <c r="R88" s="6">
         <v>43658</v>
       </c>
-      <c r="R88" s="4">
+      <c r="S88" s="4">
         <v>915</v>
       </c>
-      <c r="S88" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T88" s="4" t="s">
         <v>21</v>
       </c>
@@ -8635,22 +8880,25 @@
         <v>21</v>
       </c>
       <c r="V88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W88" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W88" s="4">
+      <c r="X88" s="4">
         <v>7.1428570999999996E-2</v>
       </c>
-      <c r="X88" s="4" t="s">
+      <c r="Y88" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Y88" s="4" t="s">
+      <c r="Z88" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Z88" s="4" t="s">
+      <c r="AA88" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -8666,48 +8914,45 @@
       <c r="E89" s="5">
         <v>2021</v>
       </c>
-      <c r="F89" s="18" t="s">
+      <c r="F89" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G89" s="18" t="s">
+      <c r="G89" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H89" s="4">
+      <c r="I89" s="4">
         <v>16</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="J89" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="K89" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="L89" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L89" s="4" t="s">
+      <c r="M89" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M89" s="4" t="s">
+      <c r="N89" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N89" s="4">
+      <c r="O89" s="4">
         <v>42.758611000000002</v>
       </c>
-      <c r="O89" s="4">
+      <c r="P89" s="4">
         <v>97.089721999999995</v>
       </c>
-      <c r="P89" s="4">
+      <c r="Q89" s="4">
         <v>362.71199999999999</v>
       </c>
-      <c r="Q89" s="6">
+      <c r="R89" s="6">
         <v>44341</v>
       </c>
-      <c r="R89" s="4">
+      <c r="S89" s="4">
         <v>1615</v>
       </c>
-      <c r="S89" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T89" s="4" t="s">
         <v>21</v>
       </c>
@@ -8715,22 +8960,25 @@
         <v>21</v>
       </c>
       <c r="V89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W89" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W89" s="4">
+      <c r="X89" s="4">
         <v>0</v>
       </c>
-      <c r="X89" s="4" t="s">
+      <c r="Y89" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y89" s="4" t="s">
+      <c r="Z89" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Z89" s="4" t="s">
+      <c r="AA89" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -8746,48 +8994,45 @@
       <c r="E90" s="5">
         <v>2021</v>
       </c>
-      <c r="F90" s="18" t="s">
+      <c r="F90" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G90" s="18" t="s">
+      <c r="G90" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H90" s="4">
+      <c r="I90" s="4">
         <v>16</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="J90" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="L90" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L90" s="4" t="s">
+      <c r="M90" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M90" s="4" t="s">
+      <c r="N90" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N90" s="4">
+      <c r="O90" s="4">
         <v>42.760832999999998</v>
       </c>
-      <c r="O90" s="4">
+      <c r="P90" s="4">
         <v>97.103611000000001</v>
       </c>
-      <c r="P90" s="4">
+      <c r="Q90" s="4">
         <v>365.76</v>
       </c>
-      <c r="Q90" s="6">
+      <c r="R90" s="6">
         <v>44341</v>
       </c>
-      <c r="R90" s="4">
+      <c r="S90" s="4">
         <v>1820</v>
       </c>
-      <c r="S90" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T90" s="4" t="s">
         <v>21</v>
       </c>
@@ -8795,22 +9040,25 @@
         <v>21</v>
       </c>
       <c r="V90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W90" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W90" s="4">
+      <c r="X90" s="4">
         <v>0</v>
       </c>
-      <c r="X90" s="4" t="s">
+      <c r="Y90" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y90" s="4" t="s">
+      <c r="Z90" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="Z90" s="4" t="s">
+      <c r="AA90" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -8826,48 +9074,45 @@
       <c r="E91" s="5">
         <v>2021</v>
       </c>
-      <c r="F91" s="18" t="s">
+      <c r="F91" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G91" s="18" t="s">
+      <c r="G91" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="I91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="K91" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="L91" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="M91" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M91" s="4" t="s">
+      <c r="N91" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N91" s="4">
+      <c r="O91" s="4">
         <v>42.758611000000002</v>
       </c>
-      <c r="O91" s="4">
+      <c r="P91" s="4">
         <v>97.089721999999995</v>
       </c>
-      <c r="P91" s="4">
+      <c r="Q91" s="4">
         <v>362.71199999999999</v>
       </c>
-      <c r="Q91" s="6">
+      <c r="R91" s="6">
         <v>44342</v>
       </c>
-      <c r="R91" s="4">
+      <c r="S91" s="4">
         <v>1430</v>
       </c>
-      <c r="S91" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T91" s="4" t="s">
         <v>21</v>
       </c>
@@ -8875,19 +9120,22 @@
         <v>21</v>
       </c>
       <c r="V91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W91" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="W91" s="4">
+      <c r="X91" s="4">
         <v>0</v>
       </c>
-      <c r="X91" s="4" t="s">
+      <c r="Y91" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y91" s="4" t="s">
+      <c r="Z91" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -8903,48 +9151,45 @@
       <c r="E92" s="5">
         <v>2021</v>
       </c>
-      <c r="F92" s="18" t="s">
+      <c r="F92" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G92" s="18" t="s">
+      <c r="G92" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H92" s="4">
+      <c r="I92" s="4">
         <v>16</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="J92" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="K92" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="L92" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="M92" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="N92" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="N92" s="4">
+      <c r="O92" s="4">
         <v>42.752777999999999</v>
       </c>
-      <c r="O92" s="4">
+      <c r="P92" s="4">
         <v>98.438889000000003</v>
       </c>
-      <c r="P92" s="4">
+      <c r="Q92" s="4">
         <v>441.96</v>
       </c>
-      <c r="Q92" s="8">
+      <c r="R92" s="8">
         <v>44344</v>
       </c>
-      <c r="R92" s="4">
+      <c r="S92" s="4">
         <v>1615</v>
       </c>
-      <c r="S92" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T92" s="4" t="s">
         <v>21</v>
       </c>
@@ -8952,22 +9197,25 @@
         <v>21</v>
       </c>
       <c r="V92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W92" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W92" s="4">
+      <c r="X92" s="4">
         <v>0</v>
       </c>
-      <c r="X92" s="4" t="s">
+      <c r="Y92" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y92" s="4" t="s">
+      <c r="Z92" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="Z92" s="4" t="s">
+      <c r="AA92" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -8983,48 +9231,45 @@
       <c r="E93" s="5">
         <v>2021</v>
       </c>
-      <c r="F93" s="18" t="s">
+      <c r="F93" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="18" t="s">
+      <c r="G93" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H93" s="4">
+      <c r="I93" s="4">
         <v>15</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="J93" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="K93" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="L93" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L93" s="4" t="s">
+      <c r="M93" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M93" s="4" t="s">
+      <c r="N93" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="N93" s="4">
+      <c r="O93" s="4">
         <v>42.752777999999999</v>
       </c>
-      <c r="O93" s="4">
+      <c r="P93" s="4">
         <v>98.438889000000003</v>
       </c>
-      <c r="P93" s="4">
+      <c r="Q93" s="4">
         <v>441.96</v>
       </c>
-      <c r="Q93" s="8">
+      <c r="R93" s="8">
         <v>44345</v>
       </c>
-      <c r="R93" s="4">
+      <c r="S93" s="4">
         <v>1840</v>
       </c>
-      <c r="S93" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T93" s="4" t="s">
         <v>21</v>
       </c>
@@ -9032,22 +9277,25 @@
         <v>21</v>
       </c>
       <c r="V93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W93" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W93" s="12">
+      <c r="X93">
         <v>0</v>
       </c>
-      <c r="X93" s="4" t="s">
+      <c r="Y93" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y93" s="4" t="s">
+      <c r="Z93" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="Z93" s="4" t="s">
+      <c r="AA93" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -9063,48 +9311,45 @@
       <c r="E94" s="5">
         <v>2021</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="F94" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G94" s="18" t="s">
+      <c r="G94" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H94" s="4">
+      <c r="I94" s="4">
         <v>14</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="J94" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="K94" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="L94" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L94" s="4" t="s">
+      <c r="M94" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M94" s="4" t="s">
+      <c r="N94" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N94" s="4">
+      <c r="O94" s="4">
         <v>42.782221999999997</v>
       </c>
-      <c r="O94" s="4">
+      <c r="P94" s="4">
         <v>100.04777799999999</v>
       </c>
-      <c r="P94" s="4">
+      <c r="Q94" s="4">
         <v>652.27200000000005</v>
       </c>
-      <c r="Q94" s="6">
+      <c r="R94" s="6">
         <v>44349</v>
       </c>
-      <c r="R94" s="4">
+      <c r="S94" s="4">
         <v>1245</v>
       </c>
-      <c r="S94" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T94" s="4" t="s">
         <v>21</v>
       </c>
@@ -9112,22 +9357,25 @@
         <v>21</v>
       </c>
       <c r="V94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W94" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W94" s="12">
+      <c r="X94">
         <v>0</v>
       </c>
-      <c r="X94" s="4" t="s">
+      <c r="Y94" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y94" s="4" t="s">
+      <c r="Z94" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="Z94" s="4" t="s">
+      <c r="AA94" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -9143,48 +9391,45 @@
       <c r="E95" s="5">
         <v>2021</v>
       </c>
-      <c r="F95" s="18" t="s">
+      <c r="F95" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G95" s="18" t="s">
+      <c r="G95" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="I95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="K95" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K95" s="4" t="s">
+      <c r="L95" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L95" s="4" t="s">
+      <c r="M95" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M95" s="4" t="s">
+      <c r="N95" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="N95" s="4">
+      <c r="O95" s="4">
         <v>42.712499999999999</v>
       </c>
-      <c r="O95" s="4">
+      <c r="P95" s="4">
         <v>103.011111</v>
       </c>
-      <c r="P95" s="4">
+      <c r="Q95" s="4">
         <v>1161.288</v>
       </c>
-      <c r="Q95" s="6">
+      <c r="R95" s="6">
         <v>44356</v>
       </c>
-      <c r="R95" s="4">
+      <c r="S95" s="4">
         <v>1512</v>
       </c>
-      <c r="S95" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T95" s="4" t="s">
         <v>21</v>
       </c>
@@ -9192,19 +9437,22 @@
         <v>21</v>
       </c>
       <c r="V95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W95" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="W95" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="X95" s="4" t="s">
+      <c r="X95" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y95" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y95" s="4" t="s">
+      <c r="Z95" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -9220,48 +9468,45 @@
       <c r="E96" s="5">
         <v>2021</v>
       </c>
-      <c r="F96" s="18" t="s">
+      <c r="F96" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="G96" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="H96" s="4">
+      <c r="I96" s="4">
         <v>15</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="J96" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="K96" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="L96" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L96" s="4" t="s">
+      <c r="M96" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M96" s="4" t="s">
+      <c r="N96" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N96" s="4">
+      <c r="O96" s="4">
         <v>41.778055999999999</v>
       </c>
-      <c r="O96" s="4">
+      <c r="P96" s="4">
         <v>105.36499999999999</v>
       </c>
-      <c r="P96" s="4">
+      <c r="Q96" s="4">
         <v>1865.376</v>
       </c>
-      <c r="Q96" s="6">
+      <c r="R96" s="6">
         <v>44364</v>
       </c>
-      <c r="R96" s="4">
+      <c r="S96" s="4">
         <v>1155</v>
       </c>
-      <c r="S96" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="T96" s="4" t="s">
         <v>21</v>
       </c>
@@ -9269,19 +9514,22 @@
         <v>21</v>
       </c>
       <c r="V96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W96" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W96" s="12">
+      <c r="X96">
         <v>1</v>
       </c>
-      <c r="X96" s="4" t="s">
+      <c r="Y96" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y96" s="4" t="s">
+      <c r="Z96" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -9297,71 +9545,71 @@
       <c r="E97" s="5">
         <v>2021</v>
       </c>
-      <c r="F97" s="18" t="s">
+      <c r="F97" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G97" s="18" t="s">
+      <c r="G97" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="H97" s="4">
+      <c r="I97" s="4">
         <v>13.5</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="J97" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="K97" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="L97" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L97" s="4" t="s">
+      <c r="M97" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M97" s="4" t="s">
+      <c r="N97" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="N97" s="4">
+      <c r="O97" s="4">
         <v>42.768611</v>
       </c>
-      <c r="O97" s="4">
+      <c r="P97" s="4">
         <v>103.92694400000001</v>
       </c>
-      <c r="P97" s="4">
+      <c r="Q97" s="4">
         <v>1350.2639999999999</v>
       </c>
-      <c r="Q97" s="6">
+      <c r="R97" s="6">
         <v>44366</v>
       </c>
-      <c r="R97" s="4">
+      <c r="S97" s="4">
         <v>1005</v>
       </c>
-      <c r="S97" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T97" s="4" t="s">
+      <c r="T97" s="6" t="s">
         <v>21</v>
       </c>
       <c r="U97" s="4" t="s">
         <v>21</v>
       </c>
       <c r="V97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W97" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0.928571429</v>
       </c>
-      <c r="X97" s="4" t="s">
+      <c r="Y97" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="Y97" s="4" t="s">
+      <c r="Z97" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="Z97" s="4" t="s">
+      <c r="AA97" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -9377,66 +9625,66 @@
       <c r="E98" s="5">
         <v>2021</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G98" s="18" t="s">
+      <c r="G98" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="I98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J98" s="4" t="s">
+      <c r="K98" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="L98" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L98" s="4" t="s">
+      <c r="M98" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M98" s="4" t="s">
+      <c r="N98" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N98" s="4">
+      <c r="O98" s="4">
         <v>42.660832999999997</v>
       </c>
-      <c r="O98" s="4">
+      <c r="P98" s="4">
         <v>103.465</v>
       </c>
-      <c r="P98" s="4">
+      <c r="Q98" s="4">
         <v>1152.144</v>
       </c>
-      <c r="Q98" s="6">
+      <c r="R98" s="6">
         <v>44376</v>
       </c>
-      <c r="R98" s="4" t="s">
+      <c r="S98" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="S98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V98" s="4" t="s">
+      <c r="T98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W98" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>0.928571429</v>
       </c>
-      <c r="X98" s="4" t="s">
+      <c r="Y98" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="Y98" s="4" t="s">
+      <c r="Z98" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="Z98" s="4" t="s">
+      <c r="AA98" s="4" t="s">
         <v>324</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z98">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA98">
     <sortCondition ref="A1:A98"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/samplesheet.xlsx
+++ b/resources/samplesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickminor/Library/Mobile Documents/com~apple~CloudDocs/Documents/RESEARCH/nrm_experiments/0023/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickminor/Documents/uwyo_experiments/0002/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA5E4D-6C75-514B-8297-5F2DB55B1F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6242A-3839-C74B-AB34-63F82191362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{80EBFAAF-AC3F-D440-9115-D672FB0F73CF}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="37520" windowHeight="23500" xr2:uid="{80EBFAAF-AC3F-D440-9115-D672FB0F73CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1827,7 +1827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1844,6 +1844,7 @@
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2160,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114F458-CEB2-4B40-A79F-421526B6D811}">
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2320,7 +2321,7 @@
         <v>42.669722</v>
       </c>
       <c r="P2">
-        <v>99.769166999999996</v>
+        <v>-99.769166999999996</v>
       </c>
       <c r="Q2" s="4">
         <v>661.41600000000005</v>
@@ -2398,7 +2399,7 @@
         <v>42.892778</v>
       </c>
       <c r="P3">
-        <v>100.31222200000001</v>
+        <v>-100.31222200000001</v>
       </c>
       <c r="Q3" s="4">
         <v>710.18399999999997</v>
@@ -2476,7 +2477,7 @@
         <v>42.407221999999997</v>
       </c>
       <c r="P4">
-        <v>105.62472200000001</v>
+        <v>-105.62472200000001</v>
       </c>
       <c r="Q4" s="4">
         <v>2020.8240000000001</v>
@@ -2552,7 +2553,7 @@
         <v>42.755833000000003</v>
       </c>
       <c r="P5">
-        <v>98.439443999999995</v>
+        <v>-98.439443999999995</v>
       </c>
       <c r="Q5" s="4">
         <v>435.86399999999998</v>
@@ -2628,7 +2629,7 @@
         <v>42.748610999999997</v>
       </c>
       <c r="P6">
-        <v>98.002778000000006</v>
+        <v>-98.002778000000006</v>
       </c>
       <c r="Q6" s="4">
         <v>377.952</v>
@@ -2703,7 +2704,7 @@
         <v>42.694167</v>
       </c>
       <c r="P7" s="4">
-        <v>103.566389</v>
+        <v>-103.566389</v>
       </c>
       <c r="Q7" s="4">
         <v>1243.5840000000001</v>
@@ -2777,7 +2778,7 @@
         <v>42.892778</v>
       </c>
       <c r="P8" s="4">
-        <v>100.31222200000001</v>
+        <v>-100.31222200000001</v>
       </c>
       <c r="Q8" s="4">
         <v>710.18399999999997</v>
@@ -2851,7 +2852,7 @@
         <v>42.665832999999999</v>
       </c>
       <c r="P9" s="4">
-        <v>99.777777999999998</v>
+        <v>-99.777777999999998</v>
       </c>
       <c r="Q9" s="4">
         <v>691.89599999999996</v>
@@ -2925,7 +2926,7 @@
         <v>42.694443999999997</v>
       </c>
       <c r="P10" s="4">
-        <v>103.565</v>
+        <v>-103.565</v>
       </c>
       <c r="Q10" s="4">
         <v>1240.5360000000001</v>
@@ -2999,7 +3000,7 @@
         <v>42.666944000000001</v>
       </c>
       <c r="P11" s="4">
-        <v>99.772778000000002</v>
+        <v>-99.772778000000002</v>
       </c>
       <c r="Q11" s="4">
         <v>673.60799999999995</v>
@@ -3073,7 +3074,7 @@
         <v>42.760556000000001</v>
       </c>
       <c r="P12" s="4">
-        <v>97.103333000000006</v>
+        <v>-97.103333000000006</v>
       </c>
       <c r="Q12" s="4">
         <v>377.952</v>
@@ -3147,7 +3148,7 @@
         <v>42.782221999999997</v>
       </c>
       <c r="P13" s="4">
-        <v>100.04861099999999</v>
+        <v>-100.04861099999999</v>
       </c>
       <c r="Q13" s="4">
         <v>652.27200000000005</v>
@@ -3224,7 +3225,7 @@
         <v>42.785556</v>
       </c>
       <c r="P14" s="4">
-        <v>100.930556</v>
+        <v>-100.930556</v>
       </c>
       <c r="Q14" s="4">
         <v>789.43200000000002</v>
@@ -3298,7 +3299,7 @@
         <v>42.651389000000002</v>
       </c>
       <c r="P15" s="4">
-        <v>103.483056</v>
+        <v>-103.483056</v>
       </c>
       <c r="Q15" s="4">
         <v>1158.24</v>
@@ -3375,7 +3376,7 @@
         <v>42.892778</v>
       </c>
       <c r="P16" s="4">
-        <v>100.31222200000001</v>
+        <v>-100.31222200000001</v>
       </c>
       <c r="Q16" s="4">
         <v>710.18399999999997</v>
@@ -3449,7 +3450,7 @@
         <v>42.889135000000003</v>
       </c>
       <c r="P17" s="4">
-        <v>100.314435</v>
+        <v>-100.314435</v>
       </c>
       <c r="Q17" s="4">
         <v>701.04</v>
@@ -3526,7 +3527,7 @@
         <v>42.693888999999999</v>
       </c>
       <c r="P18" s="4">
-        <v>103.56527800000001</v>
+        <v>-103.56527800000001</v>
       </c>
       <c r="Q18" s="4">
         <v>1243.5840000000001</v>
@@ -3600,7 +3601,7 @@
         <v>42.760832999999998</v>
       </c>
       <c r="P19" s="4">
-        <v>97.103611000000001</v>
+        <v>-97.103611000000001</v>
       </c>
       <c r="Q19" s="4">
         <v>365.76</v>
@@ -3677,7 +3678,7 @@
         <v>42.660832999999997</v>
       </c>
       <c r="P20" s="4">
-        <v>103.459444</v>
+        <v>-103.459444</v>
       </c>
       <c r="Q20" s="4">
         <v>1149.096</v>
@@ -3757,7 +3758,7 @@
         <v>42.65</v>
       </c>
       <c r="P21" s="4">
-        <v>103.50027799999999</v>
+        <v>-103.50027799999999</v>
       </c>
       <c r="Q21" s="4">
         <v>1173.48</v>
@@ -3831,7 +3832,7 @@
         <v>42.781111000000003</v>
       </c>
       <c r="P22" s="4">
-        <v>100.05249999999999</v>
+        <v>-100.05249999999999</v>
       </c>
       <c r="Q22" s="4">
         <v>652.27200000000005</v>
@@ -3905,7 +3906,7 @@
         <v>42.694721999999999</v>
       </c>
       <c r="P23" s="4">
-        <v>103.563056</v>
+        <v>-103.563056</v>
       </c>
       <c r="Q23" s="4">
         <v>1243.5840000000001</v>
@@ -3982,7 +3983,7 @@
         <v>42.783889000000002</v>
       </c>
       <c r="P24" s="4">
-        <v>100.039722</v>
+        <v>-100.039722</v>
       </c>
       <c r="Q24" s="4">
         <v>658.36800000000005</v>
@@ -4056,7 +4057,7 @@
         <v>42.76</v>
       </c>
       <c r="P25" s="4">
-        <v>97.103611000000001</v>
+        <v>-97.103611000000001</v>
       </c>
       <c r="Q25" s="4">
         <v>362.71199999999999</v>
@@ -4130,7 +4131,7 @@
         <v>42.693055999999999</v>
       </c>
       <c r="P26" s="4">
-        <v>103.566667</v>
+        <v>-103.566667</v>
       </c>
       <c r="Q26" s="4">
         <v>1243.5840000000001</v>
@@ -4204,7 +4205,7 @@
         <v>42.765278000000002</v>
       </c>
       <c r="P27" s="4">
-        <v>103.928056</v>
+        <v>-103.928056</v>
       </c>
       <c r="Q27" s="4">
         <v>1368.5519999999999</v>
@@ -4278,7 +4279,7 @@
         <v>41.776111</v>
       </c>
       <c r="P28" s="4">
-        <v>105.356944</v>
+        <v>-105.356944</v>
       </c>
       <c r="Q28" s="4">
         <v>1850.136</v>
@@ -4352,7 +4353,7 @@
         <v>42.758611000000002</v>
       </c>
       <c r="P29" s="4">
-        <v>97.103333000000006</v>
+        <v>-97.103333000000006</v>
       </c>
       <c r="Q29" s="4">
         <v>368.80799999999999</v>
@@ -4426,7 +4427,7 @@
         <v>41.777500000000003</v>
       </c>
       <c r="P30" s="4">
-        <v>105.358611</v>
+        <v>-105.358611</v>
       </c>
       <c r="Q30" s="4">
         <v>1856.232</v>
@@ -4500,7 +4501,7 @@
         <v>42.659722000000002</v>
       </c>
       <c r="P31" s="4">
-        <v>103.46083299999999</v>
+        <v>-103.46083299999999</v>
       </c>
       <c r="Q31" s="4">
         <v>1149.096</v>
@@ -4577,7 +4578,7 @@
         <v>42.660130000000002</v>
       </c>
       <c r="P32" s="4">
-        <v>103.46369</v>
+        <v>-103.46369</v>
       </c>
       <c r="Q32" s="4">
         <v>1157</v>
@@ -4654,7 +4655,7 @@
         <v>42.712499999999999</v>
       </c>
       <c r="P33" s="4">
-        <v>103.011111</v>
+        <v>-103.011111</v>
       </c>
       <c r="Q33" s="4">
         <v>1161.288</v>
@@ -4728,7 +4729,7 @@
         <v>42.696111000000002</v>
       </c>
       <c r="P34" s="4">
-        <v>103.56527800000001</v>
+        <v>-103.56527800000001</v>
       </c>
       <c r="Q34" s="4">
         <v>1246.6320000000001</v>
@@ -4802,7 +4803,7 @@
         <v>42.783889000000002</v>
       </c>
       <c r="P35" s="4">
-        <v>100.038611</v>
+        <v>-100.038611</v>
       </c>
       <c r="Q35" s="4">
         <v>658.36800000000005</v>
@@ -4876,7 +4877,7 @@
         <v>42.669722</v>
       </c>
       <c r="P36" s="4">
-        <v>99.769166999999996</v>
+        <v>-99.769166999999996</v>
       </c>
       <c r="Q36" s="4">
         <v>661.41600000000005</v>
@@ -4956,7 +4957,7 @@
         <v>42.697499999999998</v>
       </c>
       <c r="P37" s="4">
-        <v>103.567222</v>
+        <v>-103.567222</v>
       </c>
       <c r="Q37" s="4">
         <v>1246.6320000000001</v>
@@ -5039,7 +5040,7 @@
         <v>42.661667000000001</v>
       </c>
       <c r="P38" s="4">
-        <v>103.45694399999999</v>
+        <v>-103.45694399999999</v>
       </c>
       <c r="Q38" s="4">
         <v>1149.096</v>
@@ -5113,7 +5114,7 @@
         <v>41.778333000000003</v>
       </c>
       <c r="P39" s="4">
-        <v>105.3625</v>
+        <v>-105.3625</v>
       </c>
       <c r="Q39" s="4">
         <v>1865.376</v>
@@ -5187,7 +5188,7 @@
         <v>42.660130000000002</v>
       </c>
       <c r="P40" s="4">
-        <v>103.46369</v>
+        <v>-103.46369</v>
       </c>
       <c r="Q40" s="4">
         <v>1157</v>
@@ -5261,7 +5262,7 @@
         <v>42.662778000000003</v>
       </c>
       <c r="P41" s="4">
-        <v>103.453056</v>
+        <v>-103.453056</v>
       </c>
       <c r="Q41" s="4">
         <v>1146.048</v>
@@ -5335,7 +5336,7 @@
         <v>42.696666999999998</v>
       </c>
       <c r="P42" s="4">
-        <v>103.566389</v>
+        <v>-103.566389</v>
       </c>
       <c r="Q42" s="4">
         <v>1246.6320000000001</v>
@@ -5409,7 +5410,7 @@
         <v>41.775278</v>
       </c>
       <c r="P43" s="4">
-        <v>105.35638899999999</v>
+        <v>-105.35638899999999</v>
       </c>
       <c r="Q43" s="4">
         <v>1844.04</v>
@@ -5483,7 +5484,7 @@
         <v>41.776667000000003</v>
       </c>
       <c r="P44" s="4">
-        <v>105.356944</v>
+        <v>-105.356944</v>
       </c>
       <c r="Q44" s="4">
         <v>1853.184</v>
@@ -5557,7 +5558,7 @@
         <v>42.222222000000002</v>
       </c>
       <c r="P45" s="4">
-        <v>105.36027799999999</v>
+        <v>-105.36027799999999</v>
       </c>
       <c r="Q45" s="4">
         <v>2142.7440000000001</v>
@@ -5631,7 +5632,7 @@
         <v>42.222777999999998</v>
       </c>
       <c r="P46" s="4">
-        <v>105.361667</v>
+        <v>-105.361667</v>
       </c>
       <c r="Q46" s="4">
         <v>2142.7440000000001</v>
@@ -5705,7 +5706,7 @@
         <v>42.402500000000003</v>
       </c>
       <c r="P47" s="4">
-        <v>105.634444</v>
+        <v>-105.634444</v>
       </c>
       <c r="Q47" s="4">
         <v>2054.3519999999999</v>
@@ -5779,7 +5780,7 @@
         <v>42.407778</v>
       </c>
       <c r="P48" s="4">
-        <v>105.62305600000001</v>
+        <v>-105.62305600000001</v>
       </c>
       <c r="Q48" s="4">
         <v>2033.0160000000001</v>
@@ -5853,7 +5854,7 @@
         <v>42.766111000000002</v>
       </c>
       <c r="P49" s="4">
-        <v>103.92833299999999</v>
+        <v>-103.92833299999999</v>
       </c>
       <c r="Q49" s="4">
         <v>1362.4559999999999</v>
@@ -5927,7 +5928,7 @@
         <v>42.694443999999997</v>
       </c>
       <c r="P50" s="4">
-        <v>103.565</v>
+        <v>-103.565</v>
       </c>
       <c r="Q50" s="4">
         <v>1240.5360000000001</v>
@@ -6001,7 +6002,7 @@
         <v>42.696666999999998</v>
       </c>
       <c r="P51" s="4">
-        <v>103.566389</v>
+        <v>-103.566389</v>
       </c>
       <c r="Q51" s="4">
         <v>1246.6320000000001</v>
@@ -8942,7 +8943,7 @@
         <v>42.758611000000002</v>
       </c>
       <c r="P89" s="4">
-        <v>97.089721999999995</v>
+        <v>-97.089721999999995</v>
       </c>
       <c r="Q89" s="4">
         <v>362.71199999999999</v>
@@ -9022,7 +9023,7 @@
         <v>42.760832999999998</v>
       </c>
       <c r="P90" s="4">
-        <v>97.103611000000001</v>
+        <v>-97.103611000000001</v>
       </c>
       <c r="Q90" s="4">
         <v>365.76</v>
@@ -9102,7 +9103,7 @@
         <v>42.758611000000002</v>
       </c>
       <c r="P91" s="4">
-        <v>97.089721999999995</v>
+        <v>-97.089721999999995</v>
       </c>
       <c r="Q91" s="4">
         <v>362.71199999999999</v>
@@ -9179,7 +9180,7 @@
         <v>42.752777999999999</v>
       </c>
       <c r="P92" s="4">
-        <v>98.438889000000003</v>
+        <v>-98.438889000000003</v>
       </c>
       <c r="Q92" s="4">
         <v>441.96</v>
@@ -9259,7 +9260,7 @@
         <v>42.752777999999999</v>
       </c>
       <c r="P93" s="4">
-        <v>98.438889000000003</v>
+        <v>-98.438889000000003</v>
       </c>
       <c r="Q93" s="4">
         <v>441.96</v>
@@ -9339,7 +9340,7 @@
         <v>42.782221999999997</v>
       </c>
       <c r="P94" s="4">
-        <v>100.04777799999999</v>
+        <v>-100.04777799999999</v>
       </c>
       <c r="Q94" s="4">
         <v>652.27200000000005</v>
@@ -9419,7 +9420,7 @@
         <v>42.712499999999999</v>
       </c>
       <c r="P95" s="4">
-        <v>103.011111</v>
+        <v>-103.011111</v>
       </c>
       <c r="Q95" s="4">
         <v>1161.288</v>
@@ -9496,7 +9497,7 @@
         <v>41.778055999999999</v>
       </c>
       <c r="P96" s="4">
-        <v>105.36499999999999</v>
+        <v>-105.36499999999999</v>
       </c>
       <c r="Q96" s="4">
         <v>1865.376</v>
@@ -9573,7 +9574,7 @@
         <v>42.768611</v>
       </c>
       <c r="P97" s="4">
-        <v>103.92694400000001</v>
+        <v>-103.92694400000001</v>
       </c>
       <c r="Q97" s="4">
         <v>1350.2639999999999</v>
@@ -9652,8 +9653,8 @@
       <c r="O98" s="4">
         <v>42.660832999999997</v>
       </c>
-      <c r="P98" s="4">
-        <v>103.465</v>
+      <c r="P98" s="16">
+        <v>-103.465</v>
       </c>
       <c r="Q98" s="4">
         <v>1152.144</v>
